--- a/api/clv2/xlsx/pt/SectorGroup.xlsx
+++ b/api/clv2/xlsx/pt/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-name</t>
+    <t>codeforiati:category-code</t>
   </si>
   <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Educação</t>
+  </si>
+  <si>
     <t>Educação, nível não especificado</t>
   </si>
   <si>
-    <t>Educação</t>
+    <t>111</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Política e gestão administrativa da saúde</t>
   </si>
   <si>
+    <t>Saúde</t>
+  </si>
+  <si>
     <t>Saúde, geral</t>
   </si>
   <si>
-    <t>Saúde</t>
+    <t>121</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -409,18 +409,18 @@
     <t>Política e gestão administrativa do setor público</t>
   </si>
   <si>
+    <t>Governo e sociedade civil</t>
+  </si>
+  <si>
     <t>Governo e sociedade civil, geral</t>
   </si>
   <si>
-    <t>Governo e sociedade civil</t>
+    <t>151</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -709,18 +709,18 @@
     <t>Política e gestão administrativa da energia</t>
   </si>
   <si>
+    <t>Energia</t>
+  </si>
+  <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>Energia</t>
+    <t>231</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Política e gestão administrativa da agricultura</t>
   </si>
   <si>
+    <t>Agricultura, Silvicultura, Pesca</t>
+  </si>
+  <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>Agricultura, Silvicultura, Pesca</t>
+    <t>311</t>
   </si>
   <si>
     <t>310</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1189,16 +1189,16 @@
     <t>Política e gestão administrativa da indústria</t>
   </si>
   <si>
+    <t>Indústria, extractivas, construção</t>
+  </si>
+  <si>
     <t>Indústria</t>
   </si>
   <si>
-    <t>Indústria, extractivas, construção</t>
+    <t>321</t>
   </si>
   <si>
     <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
   </si>
   <si>
     <t>32120</t>
@@ -2187,16 +2187,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2210,16 +2210,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2233,16 +2233,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2256,16 +2256,16 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2279,16 +2279,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2302,16 +2302,16 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2325,16 +2325,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2348,16 +2348,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2371,16 +2371,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2394,16 +2394,16 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2417,16 +2417,16 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2532,16 +2532,16 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2555,16 +2555,16 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2578,16 +2578,16 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2601,16 +2601,16 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2624,16 +2624,16 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2647,16 +2647,16 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2670,16 +2670,16 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2690,16 +2690,16 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2713,16 +2713,16 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2736,16 +2736,16 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>81</v>
       </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2759,16 +2759,16 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
         <v>81</v>
       </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2782,16 +2782,16 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
         <v>81</v>
       </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2805,16 +2805,16 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
         <v>81</v>
       </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2828,16 +2828,16 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
         <v>81</v>
       </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2851,16 +2851,16 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
         <v>81</v>
       </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3610,16 +3610,16 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" t="s">
         <v>167</v>
       </c>
-      <c r="E68" t="s">
-        <v>132</v>
-      </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G68" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3633,16 +3633,16 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" t="s">
         <v>167</v>
       </c>
-      <c r="E69" t="s">
-        <v>132</v>
-      </c>
       <c r="F69" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3656,16 +3656,16 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
         <v>167</v>
       </c>
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
       <c r="F70" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3679,16 +3679,16 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
         <v>167</v>
       </c>
-      <c r="E71" t="s">
-        <v>132</v>
-      </c>
       <c r="F71" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G71" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3702,16 +3702,16 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" t="s">
         <v>167</v>
       </c>
-      <c r="E72" t="s">
-        <v>132</v>
-      </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G72" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3725,16 +3725,16 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" t="s">
         <v>167</v>
       </c>
-      <c r="E73" t="s">
-        <v>132</v>
-      </c>
       <c r="F73" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4346,16 +4346,16 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" t="s">
         <v>243</v>
       </c>
-      <c r="E100" t="s">
-        <v>232</v>
-      </c>
       <c r="F100" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G100" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4369,16 +4369,16 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" t="s">
         <v>243</v>
       </c>
-      <c r="E101" t="s">
-        <v>232</v>
-      </c>
       <c r="F101" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G101" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4392,16 +4392,16 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
+        <v>231</v>
+      </c>
+      <c r="E102" t="s">
         <v>243</v>
       </c>
-      <c r="E102" t="s">
-        <v>232</v>
-      </c>
       <c r="F102" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G102" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4415,16 +4415,16 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" t="s">
         <v>243</v>
       </c>
-      <c r="E103" t="s">
-        <v>232</v>
-      </c>
       <c r="F103" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G103" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4438,16 +4438,16 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" t="s">
         <v>243</v>
       </c>
-      <c r="E104" t="s">
-        <v>232</v>
-      </c>
       <c r="F104" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4461,16 +4461,16 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" t="s">
         <v>243</v>
       </c>
-      <c r="E105" t="s">
-        <v>232</v>
-      </c>
       <c r="F105" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G105" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4484,16 +4484,16 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
+        <v>231</v>
+      </c>
+      <c r="E106" t="s">
         <v>243</v>
       </c>
-      <c r="E106" t="s">
-        <v>232</v>
-      </c>
       <c r="F106" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G106" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4507,16 +4507,16 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
+        <v>231</v>
+      </c>
+      <c r="E107" t="s">
         <v>243</v>
       </c>
-      <c r="E107" t="s">
-        <v>232</v>
-      </c>
       <c r="F107" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G107" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4530,16 +4530,16 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" t="s">
         <v>243</v>
       </c>
-      <c r="E108" t="s">
-        <v>232</v>
-      </c>
       <c r="F108" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G108" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4553,16 +4553,16 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" t="s">
         <v>263</v>
       </c>
-      <c r="E109" t="s">
-        <v>232</v>
-      </c>
       <c r="F109" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G109" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4576,16 +4576,16 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" t="s">
         <v>263</v>
       </c>
-      <c r="E110" t="s">
-        <v>232</v>
-      </c>
       <c r="F110" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G110" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4599,16 +4599,16 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" t="s">
         <v>263</v>
       </c>
-      <c r="E111" t="s">
-        <v>232</v>
-      </c>
       <c r="F111" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G111" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4622,16 +4622,16 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" t="s">
         <v>263</v>
       </c>
-      <c r="E112" t="s">
-        <v>232</v>
-      </c>
       <c r="F112" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G112" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4645,16 +4645,16 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" t="s">
         <v>263</v>
       </c>
-      <c r="E113" t="s">
-        <v>232</v>
-      </c>
       <c r="F113" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G113" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4668,16 +4668,16 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
         <v>263</v>
       </c>
-      <c r="E114" t="s">
-        <v>232</v>
-      </c>
       <c r="F114" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G114" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4691,16 +4691,16 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" t="s">
         <v>277</v>
       </c>
-      <c r="E115" t="s">
-        <v>232</v>
-      </c>
       <c r="F115" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="G115" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4714,16 +4714,16 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" t="s">
         <v>281</v>
       </c>
-      <c r="E116" t="s">
-        <v>232</v>
-      </c>
       <c r="F116" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="G116" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4737,16 +4737,16 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" t="s">
         <v>285</v>
       </c>
-      <c r="E117" t="s">
-        <v>232</v>
-      </c>
       <c r="F117" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G117" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4760,16 +4760,16 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" t="s">
         <v>285</v>
       </c>
-      <c r="E118" t="s">
-        <v>232</v>
-      </c>
       <c r="F118" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G118" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4783,16 +4783,16 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" t="s">
         <v>285</v>
       </c>
-      <c r="E119" t="s">
-        <v>232</v>
-      </c>
       <c r="F119" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G119" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4806,16 +4806,16 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" t="s">
         <v>285</v>
       </c>
-      <c r="E120" t="s">
-        <v>232</v>
-      </c>
       <c r="F120" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G120" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4829,16 +4829,16 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" t="s">
         <v>285</v>
       </c>
-      <c r="E121" t="s">
-        <v>232</v>
-      </c>
       <c r="F121" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G121" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4852,16 +4852,16 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" t="s">
         <v>285</v>
       </c>
-      <c r="E122" t="s">
-        <v>232</v>
-      </c>
       <c r="F122" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G122" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4875,16 +4875,16 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" t="s">
         <v>285</v>
       </c>
-      <c r="E123" t="s">
-        <v>232</v>
-      </c>
       <c r="F123" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G123" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5542,16 +5542,16 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
+        <v>325</v>
+      </c>
+      <c r="E152" t="s">
         <v>365</v>
       </c>
-      <c r="E152" t="s">
-        <v>326</v>
-      </c>
       <c r="F152" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G152" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5565,16 +5565,16 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
+        <v>325</v>
+      </c>
+      <c r="E153" t="s">
         <v>365</v>
       </c>
-      <c r="E153" t="s">
-        <v>326</v>
-      </c>
       <c r="F153" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G153" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5588,16 +5588,16 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
+        <v>325</v>
+      </c>
+      <c r="E154" t="s">
         <v>365</v>
       </c>
-      <c r="E154" t="s">
-        <v>326</v>
-      </c>
       <c r="F154" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G154" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5611,16 +5611,16 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
+        <v>325</v>
+      </c>
+      <c r="E155" t="s">
         <v>365</v>
       </c>
-      <c r="E155" t="s">
-        <v>326</v>
-      </c>
       <c r="F155" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G155" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5634,16 +5634,16 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
+        <v>325</v>
+      </c>
+      <c r="E156" t="s">
         <v>365</v>
       </c>
-      <c r="E156" t="s">
-        <v>326</v>
-      </c>
       <c r="F156" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G156" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5657,16 +5657,16 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
+        <v>325</v>
+      </c>
+      <c r="E157" t="s">
         <v>365</v>
       </c>
-      <c r="E157" t="s">
-        <v>326</v>
-      </c>
       <c r="F157" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G157" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5680,16 +5680,16 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
+        <v>325</v>
+      </c>
+      <c r="E158" t="s">
         <v>379</v>
       </c>
-      <c r="E158" t="s">
-        <v>326</v>
-      </c>
       <c r="F158" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G158" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5703,16 +5703,16 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" t="s">
         <v>379</v>
       </c>
-      <c r="E159" t="s">
-        <v>326</v>
-      </c>
       <c r="F159" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G159" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5726,16 +5726,16 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" t="s">
         <v>379</v>
       </c>
-      <c r="E160" t="s">
-        <v>326</v>
-      </c>
       <c r="F160" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G160" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5749,16 +5749,16 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
+        <v>325</v>
+      </c>
+      <c r="E161" t="s">
         <v>379</v>
       </c>
-      <c r="E161" t="s">
-        <v>326</v>
-      </c>
       <c r="F161" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G161" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5772,16 +5772,16 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
+        <v>325</v>
+      </c>
+      <c r="E162" t="s">
         <v>379</v>
       </c>
-      <c r="E162" t="s">
-        <v>326</v>
-      </c>
       <c r="F162" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G162" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6232,16 +6232,16 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
+        <v>391</v>
+      </c>
+      <c r="E182" t="s">
         <v>433</v>
       </c>
-      <c r="E182" t="s">
-        <v>392</v>
-      </c>
       <c r="F182" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G182" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6255,16 +6255,16 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
+        <v>391</v>
+      </c>
+      <c r="E183" t="s">
         <v>433</v>
       </c>
-      <c r="E183" t="s">
-        <v>392</v>
-      </c>
       <c r="F183" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G183" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6278,16 +6278,16 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
+        <v>391</v>
+      </c>
+      <c r="E184" t="s">
         <v>433</v>
       </c>
-      <c r="E184" t="s">
-        <v>392</v>
-      </c>
       <c r="F184" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G184" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6301,16 +6301,16 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
+        <v>391</v>
+      </c>
+      <c r="E185" t="s">
         <v>433</v>
       </c>
-      <c r="E185" t="s">
-        <v>392</v>
-      </c>
       <c r="F185" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G185" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6324,16 +6324,16 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
+        <v>391</v>
+      </c>
+      <c r="E186" t="s">
         <v>433</v>
       </c>
-      <c r="E186" t="s">
-        <v>392</v>
-      </c>
       <c r="F186" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G186" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6347,16 +6347,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
+        <v>391</v>
+      </c>
+      <c r="E187" t="s">
         <v>433</v>
       </c>
-      <c r="E187" t="s">
-        <v>392</v>
-      </c>
       <c r="F187" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G187" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6370,16 +6370,16 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
+        <v>391</v>
+      </c>
+      <c r="E188" t="s">
         <v>433</v>
       </c>
-      <c r="E188" t="s">
-        <v>392</v>
-      </c>
       <c r="F188" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G188" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6393,16 +6393,16 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
+        <v>391</v>
+      </c>
+      <c r="E189" t="s">
         <v>433</v>
       </c>
-      <c r="E189" t="s">
-        <v>392</v>
-      </c>
       <c r="F189" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G189" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6416,16 +6416,16 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
+        <v>391</v>
+      </c>
+      <c r="E190" t="s">
         <v>433</v>
       </c>
-      <c r="E190" t="s">
-        <v>392</v>
-      </c>
       <c r="F190" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G190" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6439,16 +6439,16 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
+        <v>391</v>
+      </c>
+      <c r="E191" t="s">
         <v>433</v>
       </c>
-      <c r="E191" t="s">
-        <v>392</v>
-      </c>
       <c r="F191" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G191" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6462,16 +6462,16 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
+        <v>391</v>
+      </c>
+      <c r="E192" t="s">
         <v>455</v>
       </c>
-      <c r="E192" t="s">
-        <v>392</v>
-      </c>
       <c r="F192" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="G192" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="193" spans="1:7">

--- a/api/clv2/xlsx/pt/SectorGroup.xlsx
+++ b/api/clv2/xlsx/pt/SectorGroup.xlsx
@@ -25,15 +25,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
@@ -46,15 +46,15 @@
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>Educação</t>
   </si>
   <si>
     <t>Educação, nível não especificado</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Ensino primário</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Ensino básico</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Segundo ciclo do ensino secundário (modificado e inclui dados do 11322)</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Ensino secundário</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Ensino superior</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>Ensino pós-secundário</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,15 +166,15 @@
     <t>Política e gestão administrativa da saúde</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>Saúde</t>
   </si>
   <si>
     <t>Saúde, geral</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Cuidados de saúde básica</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Saúde básica</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Controle de DNT, geral</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Doenças não transmissíveis (DNT)</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>Política e gestão administrativa da população</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Políticas/programas populacionais e saúde reprodutiva</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>Política e gestão administrativa do setor da água</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Abastecimento de água e saneamento</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -409,15 +409,15 @@
     <t>Política e gestão administrativa do setor público</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>Governo e sociedade civil</t>
   </si>
   <si>
     <t>Governo e sociedade civil, geral</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -517,12 +517,12 @@
     <t>Gestão e reforma do sistema de segurança</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Conflitos, paz e segurança</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -559,12 +559,12 @@
     <t>Proteção social</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Outros serviços e infraestruturas sociais</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -631,12 +631,12 @@
     <t>Política e gestão administrativa dos transportes</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transportes e armazenamento</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -679,12 +679,12 @@
     <t>Política e gestão administrativa das comunicações</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Comunicações</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -709,15 +709,15 @@
     <t>Política e gestão administrativa da energia</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>Energia</t>
   </si>
   <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Geração de energia, fontes renováveis ​​– várias tecnologias</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Geração de energia, fontes renováveis</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -805,12 +805,12 @@
     <t>Geração de energia, fontes não renováveis, não especificadas</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Geração de energia, fontes não renováveis</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -847,36 +847,36 @@
     <t>Centrais de energia elétricas de energia híbrida</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Centrais de energia híbridas</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Centrais de energia nucleares e segurança nuclear</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>Centrais de energia nuclear</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Centrais de aquecimento</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Distribuição de energia</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Política e gestão administrativa da área financeira</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Serviços bancários e financeiros</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Política e administração de negócios</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Negócios e outros serviços</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,15 +991,15 @@
     <t>Política e gestão administrativa da agricultura</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>310</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>Política e gestão administrativa da silvicultura</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Silvicultura</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>Política e gestão administrativa da pesca</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Pesca</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1189,15 +1189,15 @@
     <t>Política e gestão administrativa da indústria</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>Indústria, extractivas, construção</t>
   </si>
   <si>
     <t>Indústria</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>320</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Política e gestão administrativa dos minerais/minas</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Recursos minerais e mineração</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1381,24 +1381,24 @@
     <t>Política e gestão administrativa da construção</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construção</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Política e gestão administrativa do comércio</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Políticas comerciais e regulamentos</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Política e gestão administrativa do turismo</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Turismo</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Política e gestão administrativa do ambiente</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>Proteção geral do ambiente</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Ajuda multissetorial</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Outros, multissetoriais</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Ajuda relacionada com o apoio orçamental geral</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>Apoio orçamental geral</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Assistência alimentar</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Ajuda alimentar ao desenvolvimento</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Apoio à importação (bens de capital)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Outra ajuda por meio de mercadorias</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1642,12 +1642,12 @@
     <t>Assistência e serviços de alívio material</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Resposta de emergência</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1666,58 +1666,58 @@
     <t>Reconstrução e reabilitação pós-emergência imediatas</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Ajuda à reconstrução e reabilitação</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Preparação da resposta contra vários riscos</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Prevenção e preparação contra catástrofes</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Custos administrativos (não atribuíveis a setores)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Custos administrativos dos doadores</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiados/requerentes de asilo em países doadores (não atribuíveis a setores)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugiados em países doadores</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Setores não especificados</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Não atribuído/não especificado</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2187,10 +2187,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2210,10 +2210,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -2233,10 +2233,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2256,10 +2256,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -2279,10 +2279,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2302,10 +2302,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2325,10 +2325,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2348,10 +2348,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -2371,10 +2371,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2394,10 +2394,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -2417,10 +2417,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -2532,10 +2532,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>
@@ -2555,10 +2555,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>63</v>
@@ -2578,10 +2578,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>63</v>
@@ -2601,10 +2601,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>63</v>
@@ -2624,10 +2624,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>63</v>
@@ -2647,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>63</v>
@@ -2670,10 +2670,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>63</v>
@@ -2690,10 +2690,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
@@ -2713,10 +2713,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
@@ -2736,10 +2736,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>82</v>
@@ -2759,10 +2759,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>82</v>
@@ -2782,10 +2782,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>82</v>
@@ -2805,10 +2805,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>82</v>
@@ -2828,10 +2828,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>82</v>
@@ -2851,10 +2851,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>82</v>
@@ -2877,13 +2877,13 @@
         <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
         <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2900,13 +2900,13 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2923,13 +2923,13 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2946,13 +2946,13 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2969,13 +2969,13 @@
         <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2992,13 +2992,13 @@
         <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
         <v>108</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3015,13 +3015,13 @@
         <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3038,13 +3038,13 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
         <v>108</v>
       </c>
       <c r="G43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3061,13 +3061,13 @@
         <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F44" t="s">
         <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3084,13 +3084,13 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
         <v>108</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3107,13 +3107,13 @@
         <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
         <v>108</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3130,13 +3130,13 @@
         <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
         <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3153,13 +3153,13 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
         <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3176,13 +3176,13 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
         <v>108</v>
       </c>
       <c r="G49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3199,13 +3199,13 @@
         <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
         <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3222,13 +3222,13 @@
         <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
         <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3610,10 +3610,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
         <v>168</v>
@@ -3633,10 +3633,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>168</v>
@@ -3656,10 +3656,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
         <v>168</v>
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
         <v>168</v>
@@ -3702,10 +3702,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
         <v>168</v>
@@ -3725,10 +3725,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
         <v>168</v>
@@ -3751,13 +3751,13 @@
         <v>181</v>
       </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F74" t="s">
         <v>182</v>
       </c>
       <c r="G74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3774,13 +3774,13 @@
         <v>181</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F75" t="s">
         <v>182</v>
       </c>
       <c r="G75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3797,13 +3797,13 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F76" t="s">
         <v>182</v>
       </c>
       <c r="G76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3820,13 +3820,13 @@
         <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F77" t="s">
         <v>182</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3843,13 +3843,13 @@
         <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F78" t="s">
         <v>182</v>
       </c>
       <c r="G78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3866,13 +3866,13 @@
         <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F79" t="s">
         <v>182</v>
       </c>
       <c r="G79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3889,13 +3889,13 @@
         <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F80" t="s">
         <v>182</v>
       </c>
       <c r="G80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3912,13 +3912,13 @@
         <v>181</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F81" t="s">
         <v>182</v>
       </c>
       <c r="G81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3935,13 +3935,13 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F82" t="s">
         <v>182</v>
       </c>
       <c r="G82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3958,13 +3958,13 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F83" t="s">
         <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3981,13 +3981,13 @@
         <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F84" t="s">
         <v>182</v>
       </c>
       <c r="G84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4004,13 +4004,13 @@
         <v>205</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
         <v>206</v>
       </c>
       <c r="G85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4027,13 +4027,13 @@
         <v>205</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F86" t="s">
         <v>206</v>
       </c>
       <c r="G86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4050,13 +4050,13 @@
         <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F87" t="s">
         <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4073,13 +4073,13 @@
         <v>205</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F88" t="s">
         <v>206</v>
       </c>
       <c r="G88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4096,13 +4096,13 @@
         <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
         <v>206</v>
       </c>
       <c r="G89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4119,13 +4119,13 @@
         <v>205</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F90" t="s">
         <v>206</v>
       </c>
       <c r="G90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4142,13 +4142,13 @@
         <v>205</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F91" t="s">
         <v>206</v>
       </c>
       <c r="G91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4165,13 +4165,13 @@
         <v>221</v>
       </c>
       <c r="E92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F92" t="s">
         <v>222</v>
       </c>
       <c r="G92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4188,13 +4188,13 @@
         <v>221</v>
       </c>
       <c r="E93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F93" t="s">
         <v>222</v>
       </c>
       <c r="G93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4211,13 +4211,13 @@
         <v>221</v>
       </c>
       <c r="E94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F94" t="s">
         <v>222</v>
       </c>
       <c r="G94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4234,13 +4234,13 @@
         <v>221</v>
       </c>
       <c r="E95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F95" t="s">
         <v>222</v>
       </c>
       <c r="G95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4346,10 +4346,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F100" t="s">
         <v>244</v>
@@ -4369,10 +4369,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F101" t="s">
         <v>244</v>
@@ -4392,10 +4392,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E102" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F102" t="s">
         <v>244</v>
@@ -4415,10 +4415,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E103" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F103" t="s">
         <v>244</v>
@@ -4438,10 +4438,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E104" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F104" t="s">
         <v>244</v>
@@ -4461,10 +4461,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F105" t="s">
         <v>244</v>
@@ -4484,10 +4484,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F106" t="s">
         <v>244</v>
@@ -4507,10 +4507,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E107" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F107" t="s">
         <v>244</v>
@@ -4530,10 +4530,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E108" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F108" t="s">
         <v>244</v>
@@ -4553,10 +4553,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E109" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F109" t="s">
         <v>264</v>
@@ -4576,10 +4576,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F110" t="s">
         <v>264</v>
@@ -4599,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E111" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F111" t="s">
         <v>264</v>
@@ -4622,10 +4622,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F112" t="s">
         <v>264</v>
@@ -4645,10 +4645,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
         <v>264</v>
@@ -4668,10 +4668,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F114" t="s">
         <v>264</v>
@@ -4691,10 +4691,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="F115" t="s">
         <v>278</v>
@@ -4714,10 +4714,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="F116" t="s">
         <v>282</v>
@@ -4737,10 +4737,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F117" t="s">
         <v>286</v>
@@ -4760,10 +4760,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E118" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
         <v>286</v>
@@ -4783,10 +4783,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
         <v>286</v>
@@ -4806,10 +4806,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
         <v>286</v>
@@ -4829,10 +4829,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E121" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
         <v>286</v>
@@ -4852,10 +4852,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
         <v>286</v>
@@ -4875,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E123" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
         <v>286</v>
@@ -4901,13 +4901,13 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F124" t="s">
         <v>302</v>
       </c>
       <c r="G124" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4924,13 +4924,13 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F125" t="s">
         <v>302</v>
       </c>
       <c r="G125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4947,13 +4947,13 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F126" t="s">
         <v>302</v>
       </c>
       <c r="G126" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4970,13 +4970,13 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F127" t="s">
         <v>302</v>
       </c>
       <c r="G127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4993,13 +4993,13 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F128" t="s">
         <v>302</v>
       </c>
       <c r="G128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5016,13 +5016,13 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F129" t="s">
         <v>302</v>
       </c>
       <c r="G129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5039,13 +5039,13 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F130" t="s">
         <v>316</v>
       </c>
       <c r="G130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5062,13 +5062,13 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F131" t="s">
         <v>316</v>
       </c>
       <c r="G131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5085,13 +5085,13 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F132" t="s">
         <v>316</v>
       </c>
       <c r="G132" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5108,13 +5108,13 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F133" t="s">
         <v>316</v>
       </c>
       <c r="G133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5542,10 +5542,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F152" t="s">
         <v>366</v>
@@ -5565,10 +5565,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E153" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F153" t="s">
         <v>366</v>
@@ -5588,10 +5588,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F154" t="s">
         <v>366</v>
@@ -5611,10 +5611,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F155" t="s">
         <v>366</v>
@@ -5634,10 +5634,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E156" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F156" t="s">
         <v>366</v>
@@ -5657,10 +5657,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E157" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F157" t="s">
         <v>366</v>
@@ -5680,10 +5680,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F158" t="s">
         <v>380</v>
@@ -5703,10 +5703,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F159" t="s">
         <v>380</v>
@@ -5726,10 +5726,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F160" t="s">
         <v>380</v>
@@ -5749,10 +5749,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F161" t="s">
         <v>380</v>
@@ -5772,10 +5772,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F162" t="s">
         <v>380</v>
@@ -6232,10 +6232,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E182" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F182" t="s">
         <v>434</v>
@@ -6255,10 +6255,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E183" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F183" t="s">
         <v>434</v>
@@ -6278,10 +6278,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E184" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F184" t="s">
         <v>434</v>
@@ -6301,10 +6301,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E185" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F185" t="s">
         <v>434</v>
@@ -6324,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E186" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F186" t="s">
         <v>434</v>
@@ -6347,10 +6347,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F187" t="s">
         <v>434</v>
@@ -6370,10 +6370,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E188" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F188" t="s">
         <v>434</v>
@@ -6393,10 +6393,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E189" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F189" t="s">
         <v>434</v>
@@ -6416,10 +6416,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F190" t="s">
         <v>434</v>
@@ -6439,10 +6439,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F191" t="s">
         <v>434</v>
@@ -6462,10 +6462,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="F192" t="s">
         <v>456</v>
@@ -6488,13 +6488,13 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F193" t="s">
         <v>460</v>
       </c>
       <c r="G193" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6511,13 +6511,13 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F194" t="s">
         <v>460</v>
       </c>
       <c r="G194" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6534,13 +6534,13 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F195" t="s">
         <v>460</v>
       </c>
       <c r="G195" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6557,13 +6557,13 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F196" t="s">
         <v>460</v>
       </c>
       <c r="G196" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6580,13 +6580,13 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F197" t="s">
         <v>460</v>
       </c>
       <c r="G197" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6603,13 +6603,13 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F198" t="s">
         <v>460</v>
       </c>
       <c r="G198" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6626,13 +6626,13 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F199" t="s">
         <v>474</v>
       </c>
       <c r="G199" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6649,13 +6649,13 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F200" t="s">
         <v>478</v>
       </c>
       <c r="G200" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6672,13 +6672,13 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F201" t="s">
         <v>478</v>
       </c>
       <c r="G201" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6695,13 +6695,13 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F202" t="s">
         <v>478</v>
       </c>
       <c r="G202" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6718,13 +6718,13 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F203" t="s">
         <v>478</v>
       </c>
       <c r="G203" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6741,13 +6741,13 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F204" t="s">
         <v>478</v>
       </c>
       <c r="G204" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6764,13 +6764,13 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F205" t="s">
         <v>478</v>
       </c>
       <c r="G205" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6787,13 +6787,13 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F206" t="s">
         <v>492</v>
       </c>
       <c r="G206" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6810,13 +6810,13 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F207" t="s">
         <v>492</v>
       </c>
       <c r="G207" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6833,13 +6833,13 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F208" t="s">
         <v>492</v>
       </c>
       <c r="G208" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6856,13 +6856,13 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F209" t="s">
         <v>492</v>
       </c>
       <c r="G209" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6879,13 +6879,13 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F210" t="s">
         <v>492</v>
       </c>
       <c r="G210" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6902,13 +6902,13 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F211" t="s">
         <v>492</v>
       </c>
       <c r="G211" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6925,13 +6925,13 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F212" t="s">
         <v>492</v>
       </c>
       <c r="G212" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6948,13 +6948,13 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F213" t="s">
         <v>492</v>
       </c>
       <c r="G213" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6971,13 +6971,13 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F214" t="s">
         <v>492</v>
       </c>
       <c r="G214" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6994,13 +6994,13 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F215" t="s">
         <v>492</v>
       </c>
       <c r="G215" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7017,13 +7017,13 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F216" t="s">
         <v>514</v>
       </c>
       <c r="G216" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7040,13 +7040,13 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F217" t="s">
         <v>518</v>
       </c>
       <c r="G217" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7063,13 +7063,13 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F218" t="s">
         <v>522</v>
       </c>
       <c r="G218" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7086,13 +7086,13 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F219" t="s">
         <v>522</v>
       </c>
       <c r="G219" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7106,13 +7106,13 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E220" t="s">
         <v>526</v>
       </c>
       <c r="F220" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G220" t="s">
         <v>527</v>
@@ -7129,13 +7129,13 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E221" t="s">
         <v>526</v>
       </c>
       <c r="F221" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G221" t="s">
         <v>527</v>
@@ -7152,13 +7152,13 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E222" t="s">
         <v>526</v>
       </c>
       <c r="F222" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G222" t="s">
         <v>527</v>
@@ -7175,13 +7175,13 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E223" t="s">
         <v>526</v>
       </c>
       <c r="F223" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G223" t="s">
         <v>527</v>
@@ -7198,13 +7198,13 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E224" t="s">
         <v>526</v>
       </c>
       <c r="F224" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G224" t="s">
         <v>527</v>
@@ -7221,13 +7221,13 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E225" t="s">
         <v>526</v>
       </c>
       <c r="F225" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G225" t="s">
         <v>527</v>
@@ -7244,13 +7244,13 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E226" t="s">
         <v>526</v>
       </c>
       <c r="F226" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G226" t="s">
         <v>527</v>
@@ -7270,13 +7270,13 @@
         <v>542</v>
       </c>
       <c r="E227" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F227" t="s">
         <v>543</v>
       </c>
       <c r="G227" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7293,13 +7293,13 @@
         <v>542</v>
       </c>
       <c r="E228" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F228" t="s">
         <v>543</v>
       </c>
       <c r="G228" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7316,13 +7316,13 @@
         <v>542</v>
       </c>
       <c r="E229" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F229" t="s">
         <v>543</v>
       </c>
       <c r="G229" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7339,13 +7339,13 @@
         <v>550</v>
       </c>
       <c r="E230" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F230" t="s">
         <v>551</v>
       </c>
       <c r="G230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7362,13 +7362,13 @@
         <v>554</v>
       </c>
       <c r="E231" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F231" t="s">
         <v>555</v>
       </c>
       <c r="G231" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7385,13 +7385,13 @@
         <v>558</v>
       </c>
       <c r="E232" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F232" t="s">
         <v>559</v>
       </c>
       <c r="G232" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7408,13 +7408,13 @@
         <v>562</v>
       </c>
       <c r="E233" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F233" t="s">
         <v>563</v>
       </c>
       <c r="G233" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7431,13 +7431,13 @@
         <v>566</v>
       </c>
       <c r="E234" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F234" t="s">
         <v>567</v>
       </c>
       <c r="G234" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7454,13 +7454,13 @@
         <v>566</v>
       </c>
       <c r="E235" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F235" t="s">
         <v>567</v>
       </c>
       <c r="G235" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/api/clv2/xlsx/pt/SectorGroup.xlsx
+++ b/api/clv2/xlsx/pt/SectorGroup.xlsx
@@ -28,15 +28,15 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -49,15 +49,15 @@
     <t>111</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Educação</t>
   </si>
   <si>
     <t>Educação, nível não especificado</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Saúde</t>
   </si>
   <si>
     <t>Saúde, geral</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -412,15 +412,15 @@
     <t>151</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Governo e sociedade civil</t>
   </si>
   <si>
     <t>Governo e sociedade civil, geral</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -712,15 +712,15 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energia</t>
   </si>
   <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -994,15 +994,15 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1192,13 +1192,13 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Indústria, extractivas, construção</t>
   </si>
   <si>
     <t>Indústria</t>
-  </si>
-  <si>
-    <t>320</t>
   </si>
   <si>
     <t>32120</t>
@@ -2193,10 +2193,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2216,10 +2216,10 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2239,10 +2239,10 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2262,10 +2262,10 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2285,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2308,10 +2308,10 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2331,10 +2331,10 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2354,10 +2354,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2377,10 +2377,10 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2400,10 +2400,10 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2423,10 +2423,10 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2538,10 +2538,10 @@
         <v>51</v>
       </c>
       <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
         <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2561,10 +2561,10 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2584,10 +2584,10 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
         <v>63</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2607,10 +2607,10 @@
         <v>51</v>
       </c>
       <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2630,10 +2630,10 @@
         <v>51</v>
       </c>
       <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
         <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2653,10 +2653,10 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
         <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2676,10 +2676,10 @@
         <v>51</v>
       </c>
       <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
         <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2696,10 +2696,10 @@
         <v>51</v>
       </c>
       <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
         <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2719,10 +2719,10 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
         <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2742,10 +2742,10 @@
         <v>51</v>
       </c>
       <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
         <v>82</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2765,10 +2765,10 @@
         <v>51</v>
       </c>
       <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
         <v>82</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2788,10 +2788,10 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
         <v>82</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2811,10 +2811,10 @@
         <v>51</v>
       </c>
       <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
         <v>82</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2834,10 +2834,10 @@
         <v>51</v>
       </c>
       <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
         <v>82</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2857,10 +2857,10 @@
         <v>51</v>
       </c>
       <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
         <v>82</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2877,13 +2877,13 @@
         <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
         <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2900,13 +2900,13 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2923,13 +2923,13 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2946,13 +2946,13 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
         <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2969,13 +2969,13 @@
         <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2992,13 +2992,13 @@
         <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
         <v>108</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3015,13 +3015,13 @@
         <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
       </c>
       <c r="G42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3038,13 +3038,13 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
         <v>108</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3061,13 +3061,13 @@
         <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
         <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3084,13 +3084,13 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" t="s">
         <v>108</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3107,13 +3107,13 @@
         <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
         <v>108</v>
       </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3130,13 +3130,13 @@
         <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" t="s">
         <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3153,13 +3153,13 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
         <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3176,13 +3176,13 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
         <v>108</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3199,13 +3199,13 @@
         <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
         <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3222,13 +3222,13 @@
         <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
         <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3616,10 +3616,10 @@
         <v>132</v>
       </c>
       <c r="F68" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" t="s">
         <v>168</v>
-      </c>
-      <c r="G68" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3639,10 +3639,10 @@
         <v>132</v>
       </c>
       <c r="F69" t="s">
+        <v>133</v>
+      </c>
+      <c r="G69" t="s">
         <v>168</v>
-      </c>
-      <c r="G69" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3662,10 +3662,10 @@
         <v>132</v>
       </c>
       <c r="F70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" t="s">
         <v>168</v>
-      </c>
-      <c r="G70" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3685,10 +3685,10 @@
         <v>132</v>
       </c>
       <c r="F71" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" t="s">
         <v>168</v>
-      </c>
-      <c r="G71" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3708,10 +3708,10 @@
         <v>132</v>
       </c>
       <c r="F72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" t="s">
         <v>168</v>
-      </c>
-      <c r="G72" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3731,10 +3731,10 @@
         <v>132</v>
       </c>
       <c r="F73" t="s">
+        <v>133</v>
+      </c>
+      <c r="G73" t="s">
         <v>168</v>
-      </c>
-      <c r="G73" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3751,13 +3751,13 @@
         <v>181</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F74" t="s">
         <v>182</v>
       </c>
       <c r="G74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3774,13 +3774,13 @@
         <v>181</v>
       </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F75" t="s">
         <v>182</v>
       </c>
       <c r="G75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3797,13 +3797,13 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F76" t="s">
         <v>182</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3820,13 +3820,13 @@
         <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F77" t="s">
         <v>182</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3843,13 +3843,13 @@
         <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s">
         <v>182</v>
       </c>
       <c r="G78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3866,13 +3866,13 @@
         <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F79" t="s">
         <v>182</v>
       </c>
       <c r="G79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3889,13 +3889,13 @@
         <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
         <v>182</v>
       </c>
       <c r="G80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3912,13 +3912,13 @@
         <v>181</v>
       </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F81" t="s">
         <v>182</v>
       </c>
       <c r="G81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3935,13 +3935,13 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F82" t="s">
         <v>182</v>
       </c>
       <c r="G82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3958,13 +3958,13 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F83" t="s">
         <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3981,13 +3981,13 @@
         <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F84" t="s">
         <v>182</v>
       </c>
       <c r="G84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4004,13 +4004,13 @@
         <v>205</v>
       </c>
       <c r="E85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F85" t="s">
         <v>206</v>
       </c>
       <c r="G85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4027,13 +4027,13 @@
         <v>205</v>
       </c>
       <c r="E86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F86" t="s">
         <v>206</v>
       </c>
       <c r="G86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4050,13 +4050,13 @@
         <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F87" t="s">
         <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4073,13 +4073,13 @@
         <v>205</v>
       </c>
       <c r="E88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s">
         <v>206</v>
       </c>
       <c r="G88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4096,13 +4096,13 @@
         <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F89" t="s">
         <v>206</v>
       </c>
       <c r="G89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4119,13 +4119,13 @@
         <v>205</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F90" t="s">
         <v>206</v>
       </c>
       <c r="G90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4142,13 +4142,13 @@
         <v>205</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F91" t="s">
         <v>206</v>
       </c>
       <c r="G91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4165,13 +4165,13 @@
         <v>221</v>
       </c>
       <c r="E92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F92" t="s">
         <v>222</v>
       </c>
       <c r="G92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4188,13 +4188,13 @@
         <v>221</v>
       </c>
       <c r="E93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F93" t="s">
         <v>222</v>
       </c>
       <c r="G93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4211,13 +4211,13 @@
         <v>221</v>
       </c>
       <c r="E94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F94" t="s">
         <v>222</v>
       </c>
       <c r="G94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4234,13 +4234,13 @@
         <v>221</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F95" t="s">
         <v>222</v>
       </c>
       <c r="G95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4352,10 +4352,10 @@
         <v>232</v>
       </c>
       <c r="F100" t="s">
+        <v>233</v>
+      </c>
+      <c r="G100" t="s">
         <v>244</v>
-      </c>
-      <c r="G100" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4375,10 +4375,10 @@
         <v>232</v>
       </c>
       <c r="F101" t="s">
+        <v>233</v>
+      </c>
+      <c r="G101" t="s">
         <v>244</v>
-      </c>
-      <c r="G101" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4398,10 +4398,10 @@
         <v>232</v>
       </c>
       <c r="F102" t="s">
+        <v>233</v>
+      </c>
+      <c r="G102" t="s">
         <v>244</v>
-      </c>
-      <c r="G102" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4421,10 +4421,10 @@
         <v>232</v>
       </c>
       <c r="F103" t="s">
+        <v>233</v>
+      </c>
+      <c r="G103" t="s">
         <v>244</v>
-      </c>
-      <c r="G103" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4444,10 +4444,10 @@
         <v>232</v>
       </c>
       <c r="F104" t="s">
+        <v>233</v>
+      </c>
+      <c r="G104" t="s">
         <v>244</v>
-      </c>
-      <c r="G104" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4467,10 +4467,10 @@
         <v>232</v>
       </c>
       <c r="F105" t="s">
+        <v>233</v>
+      </c>
+      <c r="G105" t="s">
         <v>244</v>
-      </c>
-      <c r="G105" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4490,10 +4490,10 @@
         <v>232</v>
       </c>
       <c r="F106" t="s">
+        <v>233</v>
+      </c>
+      <c r="G106" t="s">
         <v>244</v>
-      </c>
-      <c r="G106" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4513,10 +4513,10 @@
         <v>232</v>
       </c>
       <c r="F107" t="s">
+        <v>233</v>
+      </c>
+      <c r="G107" t="s">
         <v>244</v>
-      </c>
-      <c r="G107" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4536,10 +4536,10 @@
         <v>232</v>
       </c>
       <c r="F108" t="s">
+        <v>233</v>
+      </c>
+      <c r="G108" t="s">
         <v>244</v>
-      </c>
-      <c r="G108" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4559,10 +4559,10 @@
         <v>232</v>
       </c>
       <c r="F109" t="s">
+        <v>233</v>
+      </c>
+      <c r="G109" t="s">
         <v>264</v>
-      </c>
-      <c r="G109" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4582,10 +4582,10 @@
         <v>232</v>
       </c>
       <c r="F110" t="s">
+        <v>233</v>
+      </c>
+      <c r="G110" t="s">
         <v>264</v>
-      </c>
-      <c r="G110" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4605,10 +4605,10 @@
         <v>232</v>
       </c>
       <c r="F111" t="s">
+        <v>233</v>
+      </c>
+      <c r="G111" t="s">
         <v>264</v>
-      </c>
-      <c r="G111" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4628,10 +4628,10 @@
         <v>232</v>
       </c>
       <c r="F112" t="s">
+        <v>233</v>
+      </c>
+      <c r="G112" t="s">
         <v>264</v>
-      </c>
-      <c r="G112" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4651,10 +4651,10 @@
         <v>232</v>
       </c>
       <c r="F113" t="s">
+        <v>233</v>
+      </c>
+      <c r="G113" t="s">
         <v>264</v>
-      </c>
-      <c r="G113" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4674,10 +4674,10 @@
         <v>232</v>
       </c>
       <c r="F114" t="s">
+        <v>233</v>
+      </c>
+      <c r="G114" t="s">
         <v>264</v>
-      </c>
-      <c r="G114" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4697,10 +4697,10 @@
         <v>232</v>
       </c>
       <c r="F115" t="s">
+        <v>233</v>
+      </c>
+      <c r="G115" t="s">
         <v>278</v>
-      </c>
-      <c r="G115" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4720,10 +4720,10 @@
         <v>232</v>
       </c>
       <c r="F116" t="s">
+        <v>233</v>
+      </c>
+      <c r="G116" t="s">
         <v>282</v>
-      </c>
-      <c r="G116" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4743,10 +4743,10 @@
         <v>232</v>
       </c>
       <c r="F117" t="s">
+        <v>233</v>
+      </c>
+      <c r="G117" t="s">
         <v>286</v>
-      </c>
-      <c r="G117" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4766,10 +4766,10 @@
         <v>232</v>
       </c>
       <c r="F118" t="s">
+        <v>233</v>
+      </c>
+      <c r="G118" t="s">
         <v>286</v>
-      </c>
-      <c r="G118" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4789,10 +4789,10 @@
         <v>232</v>
       </c>
       <c r="F119" t="s">
+        <v>233</v>
+      </c>
+      <c r="G119" t="s">
         <v>286</v>
-      </c>
-      <c r="G119" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4812,10 +4812,10 @@
         <v>232</v>
       </c>
       <c r="F120" t="s">
+        <v>233</v>
+      </c>
+      <c r="G120" t="s">
         <v>286</v>
-      </c>
-      <c r="G120" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4835,10 +4835,10 @@
         <v>232</v>
       </c>
       <c r="F121" t="s">
+        <v>233</v>
+      </c>
+      <c r="G121" t="s">
         <v>286</v>
-      </c>
-      <c r="G121" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4858,10 +4858,10 @@
         <v>232</v>
       </c>
       <c r="F122" t="s">
+        <v>233</v>
+      </c>
+      <c r="G122" t="s">
         <v>286</v>
-      </c>
-      <c r="G122" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4881,10 +4881,10 @@
         <v>232</v>
       </c>
       <c r="F123" t="s">
+        <v>233</v>
+      </c>
+      <c r="G123" t="s">
         <v>286</v>
-      </c>
-      <c r="G123" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4901,13 +4901,13 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F124" t="s">
         <v>302</v>
       </c>
       <c r="G124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4924,13 +4924,13 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F125" t="s">
         <v>302</v>
       </c>
       <c r="G125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4947,13 +4947,13 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F126" t="s">
         <v>302</v>
       </c>
       <c r="G126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4970,13 +4970,13 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F127" t="s">
         <v>302</v>
       </c>
       <c r="G127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4993,13 +4993,13 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F128" t="s">
         <v>302</v>
       </c>
       <c r="G128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5016,13 +5016,13 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F129" t="s">
         <v>302</v>
       </c>
       <c r="G129" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5039,13 +5039,13 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F130" t="s">
         <v>316</v>
       </c>
       <c r="G130" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5062,13 +5062,13 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F131" t="s">
         <v>316</v>
       </c>
       <c r="G131" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5085,13 +5085,13 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F132" t="s">
         <v>316</v>
       </c>
       <c r="G132" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5108,13 +5108,13 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F133" t="s">
         <v>316</v>
       </c>
       <c r="G133" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5548,10 +5548,10 @@
         <v>326</v>
       </c>
       <c r="F152" t="s">
+        <v>327</v>
+      </c>
+      <c r="G152" t="s">
         <v>366</v>
-      </c>
-      <c r="G152" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5571,10 +5571,10 @@
         <v>326</v>
       </c>
       <c r="F153" t="s">
+        <v>327</v>
+      </c>
+      <c r="G153" t="s">
         <v>366</v>
-      </c>
-      <c r="G153" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5594,10 +5594,10 @@
         <v>326</v>
       </c>
       <c r="F154" t="s">
+        <v>327</v>
+      </c>
+      <c r="G154" t="s">
         <v>366</v>
-      </c>
-      <c r="G154" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5617,10 +5617,10 @@
         <v>326</v>
       </c>
       <c r="F155" t="s">
+        <v>327</v>
+      </c>
+      <c r="G155" t="s">
         <v>366</v>
-      </c>
-      <c r="G155" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5640,10 +5640,10 @@
         <v>326</v>
       </c>
       <c r="F156" t="s">
+        <v>327</v>
+      </c>
+      <c r="G156" t="s">
         <v>366</v>
-      </c>
-      <c r="G156" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5663,10 +5663,10 @@
         <v>326</v>
       </c>
       <c r="F157" t="s">
+        <v>327</v>
+      </c>
+      <c r="G157" t="s">
         <v>366</v>
-      </c>
-      <c r="G157" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5686,10 +5686,10 @@
         <v>326</v>
       </c>
       <c r="F158" t="s">
+        <v>327</v>
+      </c>
+      <c r="G158" t="s">
         <v>380</v>
-      </c>
-      <c r="G158" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5709,10 +5709,10 @@
         <v>326</v>
       </c>
       <c r="F159" t="s">
+        <v>327</v>
+      </c>
+      <c r="G159" t="s">
         <v>380</v>
-      </c>
-      <c r="G159" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5732,10 +5732,10 @@
         <v>326</v>
       </c>
       <c r="F160" t="s">
+        <v>327</v>
+      </c>
+      <c r="G160" t="s">
         <v>380</v>
-      </c>
-      <c r="G160" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5755,10 +5755,10 @@
         <v>326</v>
       </c>
       <c r="F161" t="s">
+        <v>327</v>
+      </c>
+      <c r="G161" t="s">
         <v>380</v>
-      </c>
-      <c r="G161" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5778,10 +5778,10 @@
         <v>326</v>
       </c>
       <c r="F162" t="s">
+        <v>327</v>
+      </c>
+      <c r="G162" t="s">
         <v>380</v>
-      </c>
-      <c r="G162" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6238,10 +6238,10 @@
         <v>392</v>
       </c>
       <c r="F182" t="s">
+        <v>393</v>
+      </c>
+      <c r="G182" t="s">
         <v>434</v>
-      </c>
-      <c r="G182" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6261,10 +6261,10 @@
         <v>392</v>
       </c>
       <c r="F183" t="s">
+        <v>393</v>
+      </c>
+      <c r="G183" t="s">
         <v>434</v>
-      </c>
-      <c r="G183" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6284,10 +6284,10 @@
         <v>392</v>
       </c>
       <c r="F184" t="s">
+        <v>393</v>
+      </c>
+      <c r="G184" t="s">
         <v>434</v>
-      </c>
-      <c r="G184" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6307,10 +6307,10 @@
         <v>392</v>
       </c>
       <c r="F185" t="s">
+        <v>393</v>
+      </c>
+      <c r="G185" t="s">
         <v>434</v>
-      </c>
-      <c r="G185" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6330,10 +6330,10 @@
         <v>392</v>
       </c>
       <c r="F186" t="s">
+        <v>393</v>
+      </c>
+      <c r="G186" t="s">
         <v>434</v>
-      </c>
-      <c r="G186" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6353,10 +6353,10 @@
         <v>392</v>
       </c>
       <c r="F187" t="s">
+        <v>393</v>
+      </c>
+      <c r="G187" t="s">
         <v>434</v>
-      </c>
-      <c r="G187" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6376,10 +6376,10 @@
         <v>392</v>
       </c>
       <c r="F188" t="s">
+        <v>393</v>
+      </c>
+      <c r="G188" t="s">
         <v>434</v>
-      </c>
-      <c r="G188" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6399,10 +6399,10 @@
         <v>392</v>
       </c>
       <c r="F189" t="s">
+        <v>393</v>
+      </c>
+      <c r="G189" t="s">
         <v>434</v>
-      </c>
-      <c r="G189" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6422,10 +6422,10 @@
         <v>392</v>
       </c>
       <c r="F190" t="s">
+        <v>393</v>
+      </c>
+      <c r="G190" t="s">
         <v>434</v>
-      </c>
-      <c r="G190" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6445,10 +6445,10 @@
         <v>392</v>
       </c>
       <c r="F191" t="s">
+        <v>393</v>
+      </c>
+      <c r="G191" t="s">
         <v>434</v>
-      </c>
-      <c r="G191" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6468,10 +6468,10 @@
         <v>392</v>
       </c>
       <c r="F192" t="s">
+        <v>393</v>
+      </c>
+      <c r="G192" t="s">
         <v>456</v>
-      </c>
-      <c r="G192" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6488,13 +6488,13 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F193" t="s">
         <v>460</v>
       </c>
       <c r="G193" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6511,13 +6511,13 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F194" t="s">
         <v>460</v>
       </c>
       <c r="G194" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6534,13 +6534,13 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F195" t="s">
         <v>460</v>
       </c>
       <c r="G195" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6557,13 +6557,13 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F196" t="s">
         <v>460</v>
       </c>
       <c r="G196" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6580,13 +6580,13 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F197" t="s">
         <v>460</v>
       </c>
       <c r="G197" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6603,13 +6603,13 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F198" t="s">
         <v>460</v>
       </c>
       <c r="G198" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6626,13 +6626,13 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F199" t="s">
         <v>474</v>
       </c>
       <c r="G199" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6649,13 +6649,13 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F200" t="s">
         <v>478</v>
       </c>
       <c r="G200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6672,13 +6672,13 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F201" t="s">
         <v>478</v>
       </c>
       <c r="G201" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6695,13 +6695,13 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F202" t="s">
         <v>478</v>
       </c>
       <c r="G202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6718,13 +6718,13 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F203" t="s">
         <v>478</v>
       </c>
       <c r="G203" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6741,13 +6741,13 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F204" t="s">
         <v>478</v>
       </c>
       <c r="G204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6764,13 +6764,13 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F205" t="s">
         <v>478</v>
       </c>
       <c r="G205" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6787,13 +6787,13 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F206" t="s">
         <v>492</v>
       </c>
       <c r="G206" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6810,13 +6810,13 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F207" t="s">
         <v>492</v>
       </c>
       <c r="G207" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6833,13 +6833,13 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F208" t="s">
         <v>492</v>
       </c>
       <c r="G208" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6856,13 +6856,13 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F209" t="s">
         <v>492</v>
       </c>
       <c r="G209" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6879,13 +6879,13 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F210" t="s">
         <v>492</v>
       </c>
       <c r="G210" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6902,13 +6902,13 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F211" t="s">
         <v>492</v>
       </c>
       <c r="G211" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6925,13 +6925,13 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F212" t="s">
         <v>492</v>
       </c>
       <c r="G212" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6948,13 +6948,13 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F213" t="s">
         <v>492</v>
       </c>
       <c r="G213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6971,13 +6971,13 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F214" t="s">
         <v>492</v>
       </c>
       <c r="G214" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6994,13 +6994,13 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F215" t="s">
         <v>492</v>
       </c>
       <c r="G215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7017,13 +7017,13 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F216" t="s">
         <v>514</v>
       </c>
       <c r="G216" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7040,13 +7040,13 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F217" t="s">
         <v>518</v>
       </c>
       <c r="G217" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7063,13 +7063,13 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F218" t="s">
         <v>522</v>
       </c>
       <c r="G218" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7086,13 +7086,13 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F219" t="s">
         <v>522</v>
       </c>
       <c r="G219" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7109,13 +7109,13 @@
         <v>527</v>
       </c>
       <c r="E220" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F220" t="s">
         <v>526</v>
       </c>
       <c r="G220" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7132,13 +7132,13 @@
         <v>527</v>
       </c>
       <c r="E221" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F221" t="s">
         <v>526</v>
       </c>
       <c r="G221" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7155,13 +7155,13 @@
         <v>527</v>
       </c>
       <c r="E222" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F222" t="s">
         <v>526</v>
       </c>
       <c r="G222" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7178,13 +7178,13 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F223" t="s">
         <v>526</v>
       </c>
       <c r="G223" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7201,13 +7201,13 @@
         <v>527</v>
       </c>
       <c r="E224" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F224" t="s">
         <v>526</v>
       </c>
       <c r="G224" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7224,13 +7224,13 @@
         <v>527</v>
       </c>
       <c r="E225" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F225" t="s">
         <v>526</v>
       </c>
       <c r="G225" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7247,13 +7247,13 @@
         <v>527</v>
       </c>
       <c r="E226" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F226" t="s">
         <v>526</v>
       </c>
       <c r="G226" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7270,13 +7270,13 @@
         <v>542</v>
       </c>
       <c r="E227" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F227" t="s">
         <v>543</v>
       </c>
       <c r="G227" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7293,13 +7293,13 @@
         <v>542</v>
       </c>
       <c r="E228" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F228" t="s">
         <v>543</v>
       </c>
       <c r="G228" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7316,13 +7316,13 @@
         <v>542</v>
       </c>
       <c r="E229" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F229" t="s">
         <v>543</v>
       </c>
       <c r="G229" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7339,13 +7339,13 @@
         <v>550</v>
       </c>
       <c r="E230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F230" t="s">
         <v>551</v>
       </c>
       <c r="G230" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7362,13 +7362,13 @@
         <v>554</v>
       </c>
       <c r="E231" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F231" t="s">
         <v>555</v>
       </c>
       <c r="G231" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7385,13 +7385,13 @@
         <v>558</v>
       </c>
       <c r="E232" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F232" t="s">
         <v>559</v>
       </c>
       <c r="G232" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7408,13 +7408,13 @@
         <v>562</v>
       </c>
       <c r="E233" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F233" t="s">
         <v>563</v>
       </c>
       <c r="G233" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7431,13 +7431,13 @@
         <v>566</v>
       </c>
       <c r="E234" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F234" t="s">
         <v>567</v>
       </c>
       <c r="G234" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7454,13 +7454,13 @@
         <v>566</v>
       </c>
       <c r="E235" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F235" t="s">
         <v>567</v>
       </c>
       <c r="G235" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/api/clv2/xlsx/pt/SectorGroup.xlsx
+++ b/api/clv2/xlsx/pt/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Educação, nível não especificado</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Educação</t>
-  </si>
-  <si>
-    <t>Educação, nível não especificado</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Ensino primário</t>
   </si>
   <si>
+    <t>Ensino básico</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
-    <t>Ensino básico</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Segundo ciclo do ensino secundário (modificado e inclui dados do 11322)</t>
   </si>
   <si>
+    <t>Ensino secundário</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>Ensino secundário</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Ensino superior</t>
   </si>
   <si>
+    <t>Ensino pós-secundário</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>Ensino pós-secundário</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Política e gestão administrativa da saúde</t>
   </si>
   <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Saúde, geral</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>121</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Saúde</t>
-  </si>
-  <si>
-    <t>Saúde, geral</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Cuidados de saúde básica</t>
   </si>
   <si>
+    <t>Saúde básica</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>Saúde básica</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Controle de DNT, geral</t>
   </si>
   <si>
+    <t>Doenças não transmissíveis (DNT)</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>Doenças não transmissíveis (DNT)</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>Política e gestão administrativa da população</t>
   </si>
   <si>
+    <t>Políticas/programas populacionais e saúde reprodutiva</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
-    <t>Políticas/programas populacionais e saúde reprodutiva</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>Política e gestão administrativa do setor da água</t>
   </si>
   <si>
+    <t>Abastecimento de água e saneamento</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>Abastecimento de água e saneamento</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -409,18 +409,18 @@
     <t>Política e gestão administrativa do setor público</t>
   </si>
   <si>
+    <t>Governo e sociedade civil</t>
+  </si>
+  <si>
+    <t>Governo e sociedade civil, geral</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Governo e sociedade civil</t>
-  </si>
-  <si>
-    <t>Governo e sociedade civil, geral</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -517,12 +517,12 @@
     <t>Gestão e reforma do sistema de segurança</t>
   </si>
   <si>
+    <t>Conflitos, paz e segurança</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
-    <t>Conflitos, paz e segurança</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -559,12 +559,12 @@
     <t>Proteção social</t>
   </si>
   <si>
+    <t>Outros serviços e infraestruturas sociais</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>Outros serviços e infraestruturas sociais</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -631,12 +631,12 @@
     <t>Política e gestão administrativa dos transportes</t>
   </si>
   <si>
+    <t>Transportes e armazenamento</t>
+  </si>
+  <si>
     <t>210</t>
   </si>
   <si>
-    <t>Transportes e armazenamento</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -679,12 +679,12 @@
     <t>Política e gestão administrativa das comunicações</t>
   </si>
   <si>
+    <t>Comunicações</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
-    <t>Comunicações</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -709,18 +709,18 @@
     <t>Política e gestão administrativa da energia</t>
   </si>
   <si>
+    <t>Energia</t>
+  </si>
+  <si>
+    <t>Política energética</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Energia</t>
-  </si>
-  <si>
-    <t>Política energética</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Geração de energia, fontes renováveis ​​– várias tecnologias</t>
   </si>
   <si>
+    <t>Geração de energia, fontes renováveis</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
-    <t>Geração de energia, fontes renováveis</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -805,12 +805,12 @@
     <t>Geração de energia, fontes não renováveis, não especificadas</t>
   </si>
   <si>
+    <t>Geração de energia, fontes não renováveis</t>
+  </si>
+  <si>
     <t>233</t>
   </si>
   <si>
-    <t>Geração de energia, fontes não renováveis</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -847,36 +847,36 @@
     <t>Centrais de energia elétricas de energia híbrida</t>
   </si>
   <si>
+    <t>Centrais de energia híbridas</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
-    <t>Centrais de energia híbridas</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Centrais de energia nucleares e segurança nuclear</t>
   </si>
   <si>
+    <t>Centrais de energia nuclear</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
-    <t>Centrais de energia nuclear</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Centrais de aquecimento</t>
   </si>
   <si>
+    <t>Distribuição de energia</t>
+  </si>
+  <si>
     <t>236</t>
   </si>
   <si>
-    <t>Distribuição de energia</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Política e gestão administrativa da área financeira</t>
   </si>
   <si>
+    <t>Serviços bancários e financeiros</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
-    <t>Serviços bancários e financeiros</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Política e administração de negócios</t>
   </si>
   <si>
+    <t>Negócios e outros serviços</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
-    <t>Negócios e outros serviços</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Política e gestão administrativa da agricultura</t>
   </si>
   <si>
+    <t>Agricultura, Silvicultura, Pesca</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>311</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>Agricultura, Silvicultura, Pesca</t>
-  </si>
-  <si>
-    <t>Agricultura</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>Política e gestão administrativa da silvicultura</t>
   </si>
   <si>
+    <t>Silvicultura</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
-    <t>Silvicultura</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>Política e gestão administrativa da pesca</t>
   </si>
   <si>
+    <t>Pesca</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>Pesca</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1189,18 +1189,18 @@
     <t>Política e gestão administrativa da indústria</t>
   </si>
   <si>
+    <t>Indústria, extractivas, construção</t>
+  </si>
+  <si>
+    <t>Indústria</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>Indústria, extractivas, construção</t>
-  </si>
-  <si>
-    <t>Indústria</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Política e gestão administrativa dos minerais/minas</t>
   </si>
   <si>
+    <t>Recursos minerais e mineração</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>Recursos minerais e mineração</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1381,24 +1381,24 @@
     <t>Política e gestão administrativa da construção</t>
   </si>
   <si>
+    <t>Construção</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
-    <t>Construção</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Política e gestão administrativa do comércio</t>
   </si>
   <si>
+    <t>Políticas comerciais e regulamentos</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
-    <t>Políticas comerciais e regulamentos</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Política e gestão administrativa do turismo</t>
   </si>
   <si>
+    <t>Turismo</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
-    <t>Turismo</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Política e gestão administrativa do ambiente</t>
   </si>
   <si>
+    <t>Proteção geral do ambiente</t>
+  </si>
+  <si>
     <t>410</t>
   </si>
   <si>
-    <t>Proteção geral do ambiente</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Ajuda multissetorial</t>
   </si>
   <si>
+    <t>Outros, multissetoriais</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>Outros, multissetoriais</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Ajuda relacionada com o apoio orçamental geral</t>
   </si>
   <si>
+    <t>Apoio orçamental geral</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
-    <t>Apoio orçamental geral</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Assistência alimentar</t>
   </si>
   <si>
+    <t>Ajuda alimentar ao desenvolvimento</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
-    <t>Ajuda alimentar ao desenvolvimento</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Apoio à importação (bens de capital)</t>
   </si>
   <si>
+    <t>Outra ajuda por meio de mercadorias</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
-    <t>Outra ajuda por meio de mercadorias</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1642,12 +1642,12 @@
     <t>Assistência e serviços de alívio material</t>
   </si>
   <si>
+    <t>Resposta de emergência</t>
+  </si>
+  <si>
     <t>720</t>
   </si>
   <si>
-    <t>Resposta de emergência</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1666,58 +1666,58 @@
     <t>Reconstrução e reabilitação pós-emergência imediatas</t>
   </si>
   <si>
+    <t>Ajuda à reconstrução e reabilitação</t>
+  </si>
+  <si>
     <t>730</t>
   </si>
   <si>
-    <t>Ajuda à reconstrução e reabilitação</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Preparação da resposta contra vários riscos</t>
   </si>
   <si>
+    <t>Prevenção e preparação contra catástrofes</t>
+  </si>
+  <si>
     <t>740</t>
   </si>
   <si>
-    <t>Prevenção e preparação contra catástrofes</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Custos administrativos (não atribuíveis a setores)</t>
   </si>
   <si>
+    <t>Custos administrativos dos doadores</t>
+  </si>
+  <si>
     <t>910</t>
   </si>
   <si>
-    <t>Custos administrativos dos doadores</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiados/requerentes de asilo em países doadores (não atribuíveis a setores)</t>
   </si>
   <si>
+    <t>Refugiados em países doadores</t>
+  </si>
+  <si>
     <t>930</t>
   </si>
   <si>
-    <t>Refugiados em países doadores</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Setores não especificados</t>
   </si>
   <si>
+    <t>Não atribuído/não especificado</t>
+  </si>
+  <si>
     <t>998</t>
-  </si>
-  <si>
-    <t>Não atribuído/não especificado</t>
   </si>
   <si>
     <t>99820</t>
@@ -2187,10 +2187,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -2210,10 +2210,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2233,10 +2233,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -2256,10 +2256,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -2279,10 +2279,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -2302,10 +2302,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2325,10 +2325,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2348,10 +2348,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -2371,10 +2371,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -2394,10 +2394,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2417,10 +2417,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2532,10 +2532,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
@@ -2555,10 +2555,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
@@ -2578,10 +2578,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
         <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
@@ -2601,10 +2601,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -2624,10 +2624,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
@@ -2647,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
@@ -2670,10 +2670,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
@@ -2690,10 +2690,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
@@ -2713,10 +2713,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
@@ -2736,10 +2736,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>81</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
@@ -2759,10 +2759,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
         <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
@@ -2782,10 +2782,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
         <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
@@ -2805,10 +2805,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
         <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
@@ -2828,10 +2828,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
         <v>81</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
@@ -2851,10 +2851,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
         <v>81</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -3610,10 +3610,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" t="s">
         <v>167</v>
-      </c>
-      <c r="E68" t="s">
-        <v>132</v>
       </c>
       <c r="F68" t="s">
         <v>133</v>
@@ -3633,10 +3633,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" t="s">
         <v>167</v>
-      </c>
-      <c r="E69" t="s">
-        <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
@@ -3656,10 +3656,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
         <v>167</v>
-      </c>
-      <c r="E70" t="s">
-        <v>132</v>
       </c>
       <c r="F70" t="s">
         <v>133</v>
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
         <v>167</v>
-      </c>
-      <c r="E71" t="s">
-        <v>132</v>
       </c>
       <c r="F71" t="s">
         <v>133</v>
@@ -3702,10 +3702,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" t="s">
         <v>167</v>
-      </c>
-      <c r="E72" t="s">
-        <v>132</v>
       </c>
       <c r="F72" t="s">
         <v>133</v>
@@ -3725,10 +3725,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" t="s">
         <v>167</v>
-      </c>
-      <c r="E73" t="s">
-        <v>132</v>
       </c>
       <c r="F73" t="s">
         <v>133</v>
@@ -4346,10 +4346,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" t="s">
         <v>243</v>
-      </c>
-      <c r="E100" t="s">
-        <v>232</v>
       </c>
       <c r="F100" t="s">
         <v>233</v>
@@ -4369,10 +4369,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" t="s">
         <v>243</v>
-      </c>
-      <c r="E101" t="s">
-        <v>232</v>
       </c>
       <c r="F101" t="s">
         <v>233</v>
@@ -4392,10 +4392,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
+        <v>231</v>
+      </c>
+      <c r="E102" t="s">
         <v>243</v>
-      </c>
-      <c r="E102" t="s">
-        <v>232</v>
       </c>
       <c r="F102" t="s">
         <v>233</v>
@@ -4415,10 +4415,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" t="s">
         <v>243</v>
-      </c>
-      <c r="E103" t="s">
-        <v>232</v>
       </c>
       <c r="F103" t="s">
         <v>233</v>
@@ -4438,10 +4438,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" t="s">
         <v>243</v>
-      </c>
-      <c r="E104" t="s">
-        <v>232</v>
       </c>
       <c r="F104" t="s">
         <v>233</v>
@@ -4461,10 +4461,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" t="s">
         <v>243</v>
-      </c>
-      <c r="E105" t="s">
-        <v>232</v>
       </c>
       <c r="F105" t="s">
         <v>233</v>
@@ -4484,10 +4484,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
+        <v>231</v>
+      </c>
+      <c r="E106" t="s">
         <v>243</v>
-      </c>
-      <c r="E106" t="s">
-        <v>232</v>
       </c>
       <c r="F106" t="s">
         <v>233</v>
@@ -4507,10 +4507,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
+        <v>231</v>
+      </c>
+      <c r="E107" t="s">
         <v>243</v>
-      </c>
-      <c r="E107" t="s">
-        <v>232</v>
       </c>
       <c r="F107" t="s">
         <v>233</v>
@@ -4530,10 +4530,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" t="s">
         <v>243</v>
-      </c>
-      <c r="E108" t="s">
-        <v>232</v>
       </c>
       <c r="F108" t="s">
         <v>233</v>
@@ -4553,10 +4553,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" t="s">
         <v>263</v>
-      </c>
-      <c r="E109" t="s">
-        <v>232</v>
       </c>
       <c r="F109" t="s">
         <v>233</v>
@@ -4576,10 +4576,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" t="s">
         <v>263</v>
-      </c>
-      <c r="E110" t="s">
-        <v>232</v>
       </c>
       <c r="F110" t="s">
         <v>233</v>
@@ -4599,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" t="s">
         <v>263</v>
-      </c>
-      <c r="E111" t="s">
-        <v>232</v>
       </c>
       <c r="F111" t="s">
         <v>233</v>
@@ -4622,10 +4622,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" t="s">
         <v>263</v>
-      </c>
-      <c r="E112" t="s">
-        <v>232</v>
       </c>
       <c r="F112" t="s">
         <v>233</v>
@@ -4645,10 +4645,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" t="s">
         <v>263</v>
-      </c>
-      <c r="E113" t="s">
-        <v>232</v>
       </c>
       <c r="F113" t="s">
         <v>233</v>
@@ -4668,10 +4668,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
         <v>263</v>
-      </c>
-      <c r="E114" t="s">
-        <v>232</v>
       </c>
       <c r="F114" t="s">
         <v>233</v>
@@ -4691,10 +4691,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" t="s">
         <v>277</v>
-      </c>
-      <c r="E115" t="s">
-        <v>232</v>
       </c>
       <c r="F115" t="s">
         <v>233</v>
@@ -4714,10 +4714,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" t="s">
         <v>281</v>
-      </c>
-      <c r="E116" t="s">
-        <v>232</v>
       </c>
       <c r="F116" t="s">
         <v>233</v>
@@ -4737,10 +4737,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" t="s">
         <v>285</v>
-      </c>
-      <c r="E117" t="s">
-        <v>232</v>
       </c>
       <c r="F117" t="s">
         <v>233</v>
@@ -4760,10 +4760,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" t="s">
         <v>285</v>
-      </c>
-      <c r="E118" t="s">
-        <v>232</v>
       </c>
       <c r="F118" t="s">
         <v>233</v>
@@ -4783,10 +4783,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" t="s">
         <v>285</v>
-      </c>
-      <c r="E119" t="s">
-        <v>232</v>
       </c>
       <c r="F119" t="s">
         <v>233</v>
@@ -4806,10 +4806,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" t="s">
         <v>285</v>
-      </c>
-      <c r="E120" t="s">
-        <v>232</v>
       </c>
       <c r="F120" t="s">
         <v>233</v>
@@ -4829,10 +4829,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" t="s">
         <v>285</v>
-      </c>
-      <c r="E121" t="s">
-        <v>232</v>
       </c>
       <c r="F121" t="s">
         <v>233</v>
@@ -4852,10 +4852,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" t="s">
         <v>285</v>
-      </c>
-      <c r="E122" t="s">
-        <v>232</v>
       </c>
       <c r="F122" t="s">
         <v>233</v>
@@ -4875,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" t="s">
         <v>285</v>
-      </c>
-      <c r="E123" t="s">
-        <v>232</v>
       </c>
       <c r="F123" t="s">
         <v>233</v>
@@ -5542,10 +5542,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
+        <v>325</v>
+      </c>
+      <c r="E152" t="s">
         <v>365</v>
-      </c>
-      <c r="E152" t="s">
-        <v>326</v>
       </c>
       <c r="F152" t="s">
         <v>327</v>
@@ -5565,10 +5565,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
+        <v>325</v>
+      </c>
+      <c r="E153" t="s">
         <v>365</v>
-      </c>
-      <c r="E153" t="s">
-        <v>326</v>
       </c>
       <c r="F153" t="s">
         <v>327</v>
@@ -5588,10 +5588,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
+        <v>325</v>
+      </c>
+      <c r="E154" t="s">
         <v>365</v>
-      </c>
-      <c r="E154" t="s">
-        <v>326</v>
       </c>
       <c r="F154" t="s">
         <v>327</v>
@@ -5611,10 +5611,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
+        <v>325</v>
+      </c>
+      <c r="E155" t="s">
         <v>365</v>
-      </c>
-      <c r="E155" t="s">
-        <v>326</v>
       </c>
       <c r="F155" t="s">
         <v>327</v>
@@ -5634,10 +5634,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
+        <v>325</v>
+      </c>
+      <c r="E156" t="s">
         <v>365</v>
-      </c>
-      <c r="E156" t="s">
-        <v>326</v>
       </c>
       <c r="F156" t="s">
         <v>327</v>
@@ -5657,10 +5657,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
+        <v>325</v>
+      </c>
+      <c r="E157" t="s">
         <v>365</v>
-      </c>
-      <c r="E157" t="s">
-        <v>326</v>
       </c>
       <c r="F157" t="s">
         <v>327</v>
@@ -5680,10 +5680,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
+        <v>325</v>
+      </c>
+      <c r="E158" t="s">
         <v>379</v>
-      </c>
-      <c r="E158" t="s">
-        <v>326</v>
       </c>
       <c r="F158" t="s">
         <v>327</v>
@@ -5703,10 +5703,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" t="s">
         <v>379</v>
-      </c>
-      <c r="E159" t="s">
-        <v>326</v>
       </c>
       <c r="F159" t="s">
         <v>327</v>
@@ -5726,10 +5726,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" t="s">
         <v>379</v>
-      </c>
-      <c r="E160" t="s">
-        <v>326</v>
       </c>
       <c r="F160" t="s">
         <v>327</v>
@@ -5749,10 +5749,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
+        <v>325</v>
+      </c>
+      <c r="E161" t="s">
         <v>379</v>
-      </c>
-      <c r="E161" t="s">
-        <v>326</v>
       </c>
       <c r="F161" t="s">
         <v>327</v>
@@ -5772,10 +5772,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
+        <v>325</v>
+      </c>
+      <c r="E162" t="s">
         <v>379</v>
-      </c>
-      <c r="E162" t="s">
-        <v>326</v>
       </c>
       <c r="F162" t="s">
         <v>327</v>
@@ -6232,10 +6232,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
+        <v>391</v>
+      </c>
+      <c r="E182" t="s">
         <v>433</v>
-      </c>
-      <c r="E182" t="s">
-        <v>392</v>
       </c>
       <c r="F182" t="s">
         <v>393</v>
@@ -6255,10 +6255,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
+        <v>391</v>
+      </c>
+      <c r="E183" t="s">
         <v>433</v>
-      </c>
-      <c r="E183" t="s">
-        <v>392</v>
       </c>
       <c r="F183" t="s">
         <v>393</v>
@@ -6278,10 +6278,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
+        <v>391</v>
+      </c>
+      <c r="E184" t="s">
         <v>433</v>
-      </c>
-      <c r="E184" t="s">
-        <v>392</v>
       </c>
       <c r="F184" t="s">
         <v>393</v>
@@ -6301,10 +6301,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
+        <v>391</v>
+      </c>
+      <c r="E185" t="s">
         <v>433</v>
-      </c>
-      <c r="E185" t="s">
-        <v>392</v>
       </c>
       <c r="F185" t="s">
         <v>393</v>
@@ -6324,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
+        <v>391</v>
+      </c>
+      <c r="E186" t="s">
         <v>433</v>
-      </c>
-      <c r="E186" t="s">
-        <v>392</v>
       </c>
       <c r="F186" t="s">
         <v>393</v>
@@ -6347,10 +6347,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
+        <v>391</v>
+      </c>
+      <c r="E187" t="s">
         <v>433</v>
-      </c>
-      <c r="E187" t="s">
-        <v>392</v>
       </c>
       <c r="F187" t="s">
         <v>393</v>
@@ -6370,10 +6370,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
+        <v>391</v>
+      </c>
+      <c r="E188" t="s">
         <v>433</v>
-      </c>
-      <c r="E188" t="s">
-        <v>392</v>
       </c>
       <c r="F188" t="s">
         <v>393</v>
@@ -6393,10 +6393,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
+        <v>391</v>
+      </c>
+      <c r="E189" t="s">
         <v>433</v>
-      </c>
-      <c r="E189" t="s">
-        <v>392</v>
       </c>
       <c r="F189" t="s">
         <v>393</v>
@@ -6416,10 +6416,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
+        <v>391</v>
+      </c>
+      <c r="E190" t="s">
         <v>433</v>
-      </c>
-      <c r="E190" t="s">
-        <v>392</v>
       </c>
       <c r="F190" t="s">
         <v>393</v>
@@ -6439,10 +6439,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
+        <v>391</v>
+      </c>
+      <c r="E191" t="s">
         <v>433</v>
-      </c>
-      <c r="E191" t="s">
-        <v>392</v>
       </c>
       <c r="F191" t="s">
         <v>393</v>
@@ -6462,10 +6462,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
+        <v>391</v>
+      </c>
+      <c r="E192" t="s">
         <v>455</v>
-      </c>
-      <c r="E192" t="s">
-        <v>392</v>
       </c>
       <c r="F192" t="s">
         <v>393</v>
@@ -7106,16 +7106,16 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
+        <v>526</v>
+      </c>
+      <c r="E220" t="s">
+        <v>526</v>
+      </c>
+      <c r="F220" t="s">
         <v>527</v>
       </c>
-      <c r="E220" t="s">
+      <c r="G220" t="s">
         <v>527</v>
-      </c>
-      <c r="F220" t="s">
-        <v>526</v>
-      </c>
-      <c r="G220" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7129,16 +7129,16 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
+        <v>526</v>
+      </c>
+      <c r="E221" t="s">
+        <v>526</v>
+      </c>
+      <c r="F221" t="s">
         <v>527</v>
       </c>
-      <c r="E221" t="s">
+      <c r="G221" t="s">
         <v>527</v>
-      </c>
-      <c r="F221" t="s">
-        <v>526</v>
-      </c>
-      <c r="G221" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7152,16 +7152,16 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
+        <v>526</v>
+      </c>
+      <c r="E222" t="s">
+        <v>526</v>
+      </c>
+      <c r="F222" t="s">
         <v>527</v>
       </c>
-      <c r="E222" t="s">
+      <c r="G222" t="s">
         <v>527</v>
-      </c>
-      <c r="F222" t="s">
-        <v>526</v>
-      </c>
-      <c r="G222" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7175,16 +7175,16 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
+        <v>526</v>
+      </c>
+      <c r="E223" t="s">
+        <v>526</v>
+      </c>
+      <c r="F223" t="s">
         <v>527</v>
       </c>
-      <c r="E223" t="s">
+      <c r="G223" t="s">
         <v>527</v>
-      </c>
-      <c r="F223" t="s">
-        <v>526</v>
-      </c>
-      <c r="G223" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7198,16 +7198,16 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
+        <v>526</v>
+      </c>
+      <c r="E224" t="s">
+        <v>526</v>
+      </c>
+      <c r="F224" t="s">
         <v>527</v>
       </c>
-      <c r="E224" t="s">
+      <c r="G224" t="s">
         <v>527</v>
-      </c>
-      <c r="F224" t="s">
-        <v>526</v>
-      </c>
-      <c r="G224" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7221,16 +7221,16 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
+        <v>526</v>
+      </c>
+      <c r="E225" t="s">
+        <v>526</v>
+      </c>
+      <c r="F225" t="s">
         <v>527</v>
       </c>
-      <c r="E225" t="s">
+      <c r="G225" t="s">
         <v>527</v>
-      </c>
-      <c r="F225" t="s">
-        <v>526</v>
-      </c>
-      <c r="G225" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7244,16 +7244,16 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
+        <v>526</v>
+      </c>
+      <c r="E226" t="s">
+        <v>526</v>
+      </c>
+      <c r="F226" t="s">
         <v>527</v>
       </c>
-      <c r="E226" t="s">
+      <c r="G226" t="s">
         <v>527</v>
-      </c>
-      <c r="F226" t="s">
-        <v>526</v>
-      </c>
-      <c r="G226" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="227" spans="1:7">

--- a/api/clv2/xlsx/pt/SectorGroup.xlsx
+++ b/api/clv2/xlsx/pt/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Educação</t>
   </si>
   <si>
     <t>Educação, nível não especificado</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Ensino primário</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Ensino básico</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Segundo ciclo do ensino secundário (modificado e inclui dados do 11322)</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Ensino secundário</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Ensino superior</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>Ensino pós-secundário</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Política e gestão administrativa da saúde</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Saúde</t>
   </si>
   <si>
     <t>Saúde, geral</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Cuidados de saúde básica</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Saúde básica</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Controle de DNT, geral</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Doenças não transmissíveis (DNT)</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>Política e gestão administrativa da população</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Políticas/programas populacionais e saúde reprodutiva</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>Política e gestão administrativa do setor da água</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Abastecimento de água e saneamento</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -409,18 +409,18 @@
     <t>Política e gestão administrativa do setor público</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Governo e sociedade civil</t>
   </si>
   <si>
     <t>Governo e sociedade civil, geral</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -517,12 +517,12 @@
     <t>Gestão e reforma do sistema de segurança</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Conflitos, paz e segurança</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -559,12 +559,12 @@
     <t>Proteção social</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Outros serviços e infraestruturas sociais</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -631,12 +631,12 @@
     <t>Política e gestão administrativa dos transportes</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transportes e armazenamento</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -679,12 +679,12 @@
     <t>Política e gestão administrativa das comunicações</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Comunicações</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -709,18 +709,18 @@
     <t>Política e gestão administrativa da energia</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energia</t>
   </si>
   <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Geração de energia, fontes renováveis ​​– várias tecnologias</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Geração de energia, fontes renováveis</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -805,12 +805,12 @@
     <t>Geração de energia, fontes não renováveis, não especificadas</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Geração de energia, fontes não renováveis</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -847,36 +847,36 @@
     <t>Centrais de energia elétricas de energia híbrida</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Centrais de energia híbridas</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Centrais de energia nucleares e segurança nuclear</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>Centrais de energia nuclear</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Centrais de aquecimento</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Distribuição de energia</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Política e gestão administrativa da área financeira</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Serviços bancários e financeiros</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Política e administração de negócios</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Negócios e outros serviços</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Política e gestão administrativa da agricultura</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>Política e gestão administrativa da silvicultura</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Silvicultura</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>Política e gestão administrativa da pesca</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Pesca</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1189,18 +1189,18 @@
     <t>Política e gestão administrativa da indústria</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Indústria, extractivas, construção</t>
   </si>
   <si>
     <t>Indústria</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Política e gestão administrativa dos minerais/minas</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Recursos minerais e mineração</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1381,24 +1381,24 @@
     <t>Política e gestão administrativa da construção</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construção</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Política e gestão administrativa do comércio</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Políticas comerciais e regulamentos</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Política e gestão administrativa do turismo</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Turismo</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Política e gestão administrativa do ambiente</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>Proteção geral do ambiente</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Ajuda multissetorial</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Outros, multissetoriais</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Ajuda relacionada com o apoio orçamental geral</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>Apoio orçamental geral</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Assistência alimentar</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Ajuda alimentar ao desenvolvimento</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Apoio à importação (bens de capital)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Outra ajuda por meio de mercadorias</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1642,12 +1642,12 @@
     <t>Assistência e serviços de alívio material</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Resposta de emergência</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1666,58 +1666,58 @@
     <t>Reconstrução e reabilitação pós-emergência imediatas</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Ajuda à reconstrução e reabilitação</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Preparação da resposta contra vários riscos</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Prevenção e preparação contra catástrofes</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Custos administrativos (não atribuíveis a setores)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Custos administrativos dos doadores</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiados/requerentes de asilo em países doadores (não atribuíveis a setores)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugiados em países doadores</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Setores não especificados</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Não atribuído/não especificado</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2187,10 +2187,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -2210,10 +2210,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2233,10 +2233,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -2256,10 +2256,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -2279,10 +2279,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -2302,10 +2302,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2325,10 +2325,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2348,10 +2348,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -2371,10 +2371,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -2394,10 +2394,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2417,10 +2417,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2532,10 +2532,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
@@ -2555,10 +2555,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
@@ -2578,10 +2578,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
@@ -2601,10 +2601,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -2624,10 +2624,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
@@ -2647,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
@@ -2670,10 +2670,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
@@ -2690,10 +2690,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
@@ -2713,10 +2713,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
@@ -2736,10 +2736,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
@@ -2759,10 +2759,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
@@ -2782,10 +2782,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
@@ -2805,10 +2805,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
@@ -2828,10 +2828,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
@@ -2851,10 +2851,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -3610,10 +3610,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
         <v>133</v>
@@ -3633,10 +3633,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
@@ -3656,10 +3656,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
         <v>133</v>
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
         <v>133</v>
@@ -3702,10 +3702,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
         <v>133</v>
@@ -3725,10 +3725,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
         <v>133</v>
@@ -4346,10 +4346,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F100" t="s">
         <v>233</v>
@@ -4369,10 +4369,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F101" t="s">
         <v>233</v>
@@ -4392,10 +4392,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E102" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F102" t="s">
         <v>233</v>
@@ -4415,10 +4415,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E103" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F103" t="s">
         <v>233</v>
@@ -4438,10 +4438,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E104" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F104" t="s">
         <v>233</v>
@@ -4461,10 +4461,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F105" t="s">
         <v>233</v>
@@ -4484,10 +4484,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F106" t="s">
         <v>233</v>
@@ -4507,10 +4507,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E107" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F107" t="s">
         <v>233</v>
@@ -4530,10 +4530,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E108" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F108" t="s">
         <v>233</v>
@@ -4553,10 +4553,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E109" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F109" t="s">
         <v>233</v>
@@ -4576,10 +4576,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F110" t="s">
         <v>233</v>
@@ -4599,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E111" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F111" t="s">
         <v>233</v>
@@ -4622,10 +4622,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F112" t="s">
         <v>233</v>
@@ -4645,10 +4645,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
         <v>233</v>
@@ -4668,10 +4668,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F114" t="s">
         <v>233</v>
@@ -4691,10 +4691,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="F115" t="s">
         <v>233</v>
@@ -4714,10 +4714,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="F116" t="s">
         <v>233</v>
@@ -4737,10 +4737,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F117" t="s">
         <v>233</v>
@@ -4760,10 +4760,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E118" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
         <v>233</v>
@@ -4783,10 +4783,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
         <v>233</v>
@@ -4806,10 +4806,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
         <v>233</v>
@@ -4829,10 +4829,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E121" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
         <v>233</v>
@@ -4852,10 +4852,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
         <v>233</v>
@@ -4875,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E123" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
         <v>233</v>
@@ -5542,10 +5542,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F152" t="s">
         <v>327</v>
@@ -5565,10 +5565,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E153" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F153" t="s">
         <v>327</v>
@@ -5588,10 +5588,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F154" t="s">
         <v>327</v>
@@ -5611,10 +5611,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F155" t="s">
         <v>327</v>
@@ -5634,10 +5634,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E156" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F156" t="s">
         <v>327</v>
@@ -5657,10 +5657,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E157" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F157" t="s">
         <v>327</v>
@@ -5680,10 +5680,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F158" t="s">
         <v>327</v>
@@ -5703,10 +5703,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F159" t="s">
         <v>327</v>
@@ -5726,10 +5726,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F160" t="s">
         <v>327</v>
@@ -5749,10 +5749,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F161" t="s">
         <v>327</v>
@@ -5772,10 +5772,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F162" t="s">
         <v>327</v>
@@ -6232,10 +6232,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E182" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F182" t="s">
         <v>393</v>
@@ -6255,10 +6255,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E183" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F183" t="s">
         <v>393</v>
@@ -6278,10 +6278,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E184" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F184" t="s">
         <v>393</v>
@@ -6301,10 +6301,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E185" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F185" t="s">
         <v>393</v>
@@ -6324,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E186" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F186" t="s">
         <v>393</v>
@@ -6347,10 +6347,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F187" t="s">
         <v>393</v>
@@ -6370,10 +6370,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E188" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F188" t="s">
         <v>393</v>
@@ -6393,10 +6393,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E189" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F189" t="s">
         <v>393</v>
@@ -6416,10 +6416,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F190" t="s">
         <v>393</v>
@@ -6439,10 +6439,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F191" t="s">
         <v>393</v>
@@ -6462,10 +6462,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="F192" t="s">
         <v>393</v>
@@ -7106,16 +7106,16 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
+        <v>527</v>
+      </c>
+      <c r="E220" t="s">
+        <v>527</v>
+      </c>
+      <c r="F220" t="s">
         <v>526</v>
       </c>
-      <c r="E220" t="s">
+      <c r="G220" t="s">
         <v>526</v>
-      </c>
-      <c r="F220" t="s">
-        <v>527</v>
-      </c>
-      <c r="G220" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7129,16 +7129,16 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
+        <v>527</v>
+      </c>
+      <c r="E221" t="s">
+        <v>527</v>
+      </c>
+      <c r="F221" t="s">
         <v>526</v>
       </c>
-      <c r="E221" t="s">
+      <c r="G221" t="s">
         <v>526</v>
-      </c>
-      <c r="F221" t="s">
-        <v>527</v>
-      </c>
-      <c r="G221" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7152,16 +7152,16 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
+        <v>527</v>
+      </c>
+      <c r="E222" t="s">
+        <v>527</v>
+      </c>
+      <c r="F222" t="s">
         <v>526</v>
       </c>
-      <c r="E222" t="s">
+      <c r="G222" t="s">
         <v>526</v>
-      </c>
-      <c r="F222" t="s">
-        <v>527</v>
-      </c>
-      <c r="G222" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7175,16 +7175,16 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
+        <v>527</v>
+      </c>
+      <c r="E223" t="s">
+        <v>527</v>
+      </c>
+      <c r="F223" t="s">
         <v>526</v>
       </c>
-      <c r="E223" t="s">
+      <c r="G223" t="s">
         <v>526</v>
-      </c>
-      <c r="F223" t="s">
-        <v>527</v>
-      </c>
-      <c r="G223" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7198,16 +7198,16 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
+        <v>527</v>
+      </c>
+      <c r="E224" t="s">
+        <v>527</v>
+      </c>
+      <c r="F224" t="s">
         <v>526</v>
       </c>
-      <c r="E224" t="s">
+      <c r="G224" t="s">
         <v>526</v>
-      </c>
-      <c r="F224" t="s">
-        <v>527</v>
-      </c>
-      <c r="G224" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7221,16 +7221,16 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
+        <v>527</v>
+      </c>
+      <c r="E225" t="s">
+        <v>527</v>
+      </c>
+      <c r="F225" t="s">
         <v>526</v>
       </c>
-      <c r="E225" t="s">
+      <c r="G225" t="s">
         <v>526</v>
-      </c>
-      <c r="F225" t="s">
-        <v>527</v>
-      </c>
-      <c r="G225" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7244,16 +7244,16 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
+        <v>527</v>
+      </c>
+      <c r="E226" t="s">
+        <v>527</v>
+      </c>
+      <c r="F226" t="s">
         <v>526</v>
       </c>
-      <c r="E226" t="s">
+      <c r="G226" t="s">
         <v>526</v>
-      </c>
-      <c r="F226" t="s">
-        <v>527</v>
-      </c>
-      <c r="G226" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="227" spans="1:7">

--- a/api/clv2/xlsx/pt/SectorGroup.xlsx
+++ b/api/clv2/xlsx/pt/SectorGroup.xlsx
@@ -28,15 +28,15 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -49,15 +49,15 @@
     <t>111</t>
   </si>
   <si>
+    <t>Educação, nível não especificado</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
     <t>Educação</t>
   </si>
   <si>
-    <t>Educação, nível não especificado</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>121</t>
   </si>
   <si>
+    <t>Saúde, geral</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
     <t>Saúde</t>
   </si>
   <si>
-    <t>Saúde, geral</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -412,15 +412,15 @@
     <t>151</t>
   </si>
   <si>
+    <t>Governo e sociedade civil, geral</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
     <t>Governo e sociedade civil</t>
   </si>
   <si>
-    <t>Governo e sociedade civil, geral</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -712,15 +712,15 @@
     <t>231</t>
   </si>
   <si>
+    <t>Política energética</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
     <t>Energia</t>
   </si>
   <si>
-    <t>Política energética</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -994,15 +994,15 @@
     <t>311</t>
   </si>
   <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
-    <t>Agricultura</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1192,13 +1192,13 @@
     <t>321</t>
   </si>
   <si>
+    <t>Indústria</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
     <t>Indústria, extractivas, construção</t>
-  </si>
-  <si>
-    <t>Indústria</t>
   </si>
   <si>
     <t>32120</t>
@@ -2190,13 +2190,13 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2213,13 +2213,13 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2236,13 +2236,13 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2259,13 +2259,13 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2282,13 +2282,13 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2305,13 +2305,13 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2328,13 +2328,13 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2351,13 +2351,13 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2374,13 +2374,13 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2397,13 +2397,13 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2420,13 +2420,13 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2535,13 +2535,13 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2558,13 +2558,13 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2581,13 +2581,13 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2604,13 +2604,13 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2627,13 +2627,13 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2650,13 +2650,13 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2673,13 +2673,13 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2693,13 +2693,13 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2716,13 +2716,13 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2739,13 +2739,13 @@
         <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2762,13 +2762,13 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2785,13 +2785,13 @@
         <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2808,13 +2808,13 @@
         <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2831,13 +2831,13 @@
         <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2854,13 +2854,13 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2877,10 +2877,10 @@
         <v>95</v>
       </c>
       <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
         <v>95</v>
-      </c>
-      <c r="F36" t="s">
-        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>96</v>
@@ -2900,10 +2900,10 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
         <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>96</v>
@@ -2923,10 +2923,10 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
         <v>95</v>
-      </c>
-      <c r="F38" t="s">
-        <v>96</v>
       </c>
       <c r="G38" t="s">
         <v>96</v>
@@ -2946,10 +2946,10 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
         <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
       </c>
       <c r="G39" t="s">
         <v>96</v>
@@ -2969,10 +2969,10 @@
         <v>95</v>
       </c>
       <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
         <v>95</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
       </c>
       <c r="G40" t="s">
         <v>96</v>
@@ -2992,10 +2992,10 @@
         <v>107</v>
       </c>
       <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
         <v>107</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
       </c>
       <c r="G41" t="s">
         <v>108</v>
@@ -3015,10 +3015,10 @@
         <v>107</v>
       </c>
       <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
         <v>107</v>
-      </c>
-      <c r="F42" t="s">
-        <v>108</v>
       </c>
       <c r="G42" t="s">
         <v>108</v>
@@ -3038,10 +3038,10 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
         <v>107</v>
-      </c>
-      <c r="F43" t="s">
-        <v>108</v>
       </c>
       <c r="G43" t="s">
         <v>108</v>
@@ -3061,10 +3061,10 @@
         <v>107</v>
       </c>
       <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
         <v>107</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
       </c>
       <c r="G44" t="s">
         <v>108</v>
@@ -3084,10 +3084,10 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s">
         <v>107</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
       </c>
       <c r="G45" t="s">
         <v>108</v>
@@ -3107,10 +3107,10 @@
         <v>107</v>
       </c>
       <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s">
         <v>107</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
       </c>
       <c r="G46" t="s">
         <v>108</v>
@@ -3130,10 +3130,10 @@
         <v>107</v>
       </c>
       <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
         <v>107</v>
-      </c>
-      <c r="F47" t="s">
-        <v>108</v>
       </c>
       <c r="G47" t="s">
         <v>108</v>
@@ -3153,10 +3153,10 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
         <v>107</v>
-      </c>
-      <c r="F48" t="s">
-        <v>108</v>
       </c>
       <c r="G48" t="s">
         <v>108</v>
@@ -3176,10 +3176,10 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
         <v>107</v>
-      </c>
-      <c r="F49" t="s">
-        <v>108</v>
       </c>
       <c r="G49" t="s">
         <v>108</v>
@@ -3199,10 +3199,10 @@
         <v>107</v>
       </c>
       <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" t="s">
         <v>107</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
       </c>
       <c r="G50" t="s">
         <v>108</v>
@@ -3222,10 +3222,10 @@
         <v>107</v>
       </c>
       <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
         <v>107</v>
-      </c>
-      <c r="F51" t="s">
-        <v>108</v>
       </c>
       <c r="G51" t="s">
         <v>108</v>
@@ -3613,13 +3613,13 @@
         <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
         <v>133</v>
       </c>
       <c r="G68" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3636,13 +3636,13 @@
         <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3659,13 +3659,13 @@
         <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
         <v>133</v>
       </c>
       <c r="G70" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3682,13 +3682,13 @@
         <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s">
         <v>133</v>
       </c>
       <c r="G71" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3705,13 +3705,13 @@
         <v>167</v>
       </c>
       <c r="E72" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F72" t="s">
         <v>133</v>
       </c>
       <c r="G72" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3728,13 +3728,13 @@
         <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F73" t="s">
         <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3751,10 +3751,10 @@
         <v>181</v>
       </c>
       <c r="E74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" t="s">
         <v>181</v>
-      </c>
-      <c r="F74" t="s">
-        <v>182</v>
       </c>
       <c r="G74" t="s">
         <v>182</v>
@@ -3774,10 +3774,10 @@
         <v>181</v>
       </c>
       <c r="E75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" t="s">
         <v>181</v>
-      </c>
-      <c r="F75" t="s">
-        <v>182</v>
       </c>
       <c r="G75" t="s">
         <v>182</v>
@@ -3797,10 +3797,10 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" t="s">
         <v>181</v>
-      </c>
-      <c r="F76" t="s">
-        <v>182</v>
       </c>
       <c r="G76" t="s">
         <v>182</v>
@@ -3820,10 +3820,10 @@
         <v>181</v>
       </c>
       <c r="E77" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" t="s">
         <v>181</v>
-      </c>
-      <c r="F77" t="s">
-        <v>182</v>
       </c>
       <c r="G77" t="s">
         <v>182</v>
@@ -3843,10 +3843,10 @@
         <v>181</v>
       </c>
       <c r="E78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" t="s">
         <v>181</v>
-      </c>
-      <c r="F78" t="s">
-        <v>182</v>
       </c>
       <c r="G78" t="s">
         <v>182</v>
@@ -3866,10 +3866,10 @@
         <v>181</v>
       </c>
       <c r="E79" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" t="s">
         <v>181</v>
-      </c>
-      <c r="F79" t="s">
-        <v>182</v>
       </c>
       <c r="G79" t="s">
         <v>182</v>
@@ -3889,10 +3889,10 @@
         <v>181</v>
       </c>
       <c r="E80" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" t="s">
         <v>181</v>
-      </c>
-      <c r="F80" t="s">
-        <v>182</v>
       </c>
       <c r="G80" t="s">
         <v>182</v>
@@ -3912,10 +3912,10 @@
         <v>181</v>
       </c>
       <c r="E81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81" t="s">
         <v>181</v>
-      </c>
-      <c r="F81" t="s">
-        <v>182</v>
       </c>
       <c r="G81" t="s">
         <v>182</v>
@@ -3935,10 +3935,10 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
+        <v>182</v>
+      </c>
+      <c r="F82" t="s">
         <v>181</v>
-      </c>
-      <c r="F82" t="s">
-        <v>182</v>
       </c>
       <c r="G82" t="s">
         <v>182</v>
@@ -3958,10 +3958,10 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F83" t="s">
         <v>181</v>
-      </c>
-      <c r="F83" t="s">
-        <v>182</v>
       </c>
       <c r="G83" t="s">
         <v>182</v>
@@ -3981,10 +3981,10 @@
         <v>181</v>
       </c>
       <c r="E84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" t="s">
         <v>181</v>
-      </c>
-      <c r="F84" t="s">
-        <v>182</v>
       </c>
       <c r="G84" t="s">
         <v>182</v>
@@ -4004,10 +4004,10 @@
         <v>205</v>
       </c>
       <c r="E85" t="s">
+        <v>206</v>
+      </c>
+      <c r="F85" t="s">
         <v>205</v>
-      </c>
-      <c r="F85" t="s">
-        <v>206</v>
       </c>
       <c r="G85" t="s">
         <v>206</v>
@@ -4027,10 +4027,10 @@
         <v>205</v>
       </c>
       <c r="E86" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" t="s">
         <v>205</v>
-      </c>
-      <c r="F86" t="s">
-        <v>206</v>
       </c>
       <c r="G86" t="s">
         <v>206</v>
@@ -4050,10 +4050,10 @@
         <v>205</v>
       </c>
       <c r="E87" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" t="s">
         <v>205</v>
-      </c>
-      <c r="F87" t="s">
-        <v>206</v>
       </c>
       <c r="G87" t="s">
         <v>206</v>
@@ -4073,10 +4073,10 @@
         <v>205</v>
       </c>
       <c r="E88" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" t="s">
         <v>205</v>
-      </c>
-      <c r="F88" t="s">
-        <v>206</v>
       </c>
       <c r="G88" t="s">
         <v>206</v>
@@ -4096,10 +4096,10 @@
         <v>205</v>
       </c>
       <c r="E89" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" t="s">
         <v>205</v>
-      </c>
-      <c r="F89" t="s">
-        <v>206</v>
       </c>
       <c r="G89" t="s">
         <v>206</v>
@@ -4119,10 +4119,10 @@
         <v>205</v>
       </c>
       <c r="E90" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" t="s">
         <v>205</v>
-      </c>
-      <c r="F90" t="s">
-        <v>206</v>
       </c>
       <c r="G90" t="s">
         <v>206</v>
@@ -4142,10 +4142,10 @@
         <v>205</v>
       </c>
       <c r="E91" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" t="s">
         <v>205</v>
-      </c>
-      <c r="F91" t="s">
-        <v>206</v>
       </c>
       <c r="G91" t="s">
         <v>206</v>
@@ -4165,10 +4165,10 @@
         <v>221</v>
       </c>
       <c r="E92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" t="s">
         <v>221</v>
-      </c>
-      <c r="F92" t="s">
-        <v>222</v>
       </c>
       <c r="G92" t="s">
         <v>222</v>
@@ -4188,10 +4188,10 @@
         <v>221</v>
       </c>
       <c r="E93" t="s">
+        <v>222</v>
+      </c>
+      <c r="F93" t="s">
         <v>221</v>
-      </c>
-      <c r="F93" t="s">
-        <v>222</v>
       </c>
       <c r="G93" t="s">
         <v>222</v>
@@ -4211,10 +4211,10 @@
         <v>221</v>
       </c>
       <c r="E94" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" t="s">
         <v>221</v>
-      </c>
-      <c r="F94" t="s">
-        <v>222</v>
       </c>
       <c r="G94" t="s">
         <v>222</v>
@@ -4234,10 +4234,10 @@
         <v>221</v>
       </c>
       <c r="E95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" t="s">
         <v>221</v>
-      </c>
-      <c r="F95" t="s">
-        <v>222</v>
       </c>
       <c r="G95" t="s">
         <v>222</v>
@@ -4349,13 +4349,13 @@
         <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F100" t="s">
         <v>233</v>
       </c>
       <c r="G100" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4372,13 +4372,13 @@
         <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
         <v>233</v>
       </c>
       <c r="G101" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4395,13 +4395,13 @@
         <v>243</v>
       </c>
       <c r="E102" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F102" t="s">
         <v>233</v>
       </c>
       <c r="G102" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4418,13 +4418,13 @@
         <v>243</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F103" t="s">
         <v>233</v>
       </c>
       <c r="G103" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4441,13 +4441,13 @@
         <v>243</v>
       </c>
       <c r="E104" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F104" t="s">
         <v>233</v>
       </c>
       <c r="G104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4464,13 +4464,13 @@
         <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F105" t="s">
         <v>233</v>
       </c>
       <c r="G105" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4487,13 +4487,13 @@
         <v>243</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F106" t="s">
         <v>233</v>
       </c>
       <c r="G106" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4510,13 +4510,13 @@
         <v>243</v>
       </c>
       <c r="E107" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F107" t="s">
         <v>233</v>
       </c>
       <c r="G107" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4533,13 +4533,13 @@
         <v>243</v>
       </c>
       <c r="E108" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F108" t="s">
         <v>233</v>
       </c>
       <c r="G108" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4556,13 +4556,13 @@
         <v>263</v>
       </c>
       <c r="E109" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F109" t="s">
         <v>233</v>
       </c>
       <c r="G109" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4579,13 +4579,13 @@
         <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F110" t="s">
         <v>233</v>
       </c>
       <c r="G110" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4602,13 +4602,13 @@
         <v>263</v>
       </c>
       <c r="E111" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F111" t="s">
         <v>233</v>
       </c>
       <c r="G111" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4625,13 +4625,13 @@
         <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F112" t="s">
         <v>233</v>
       </c>
       <c r="G112" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4648,13 +4648,13 @@
         <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F113" t="s">
         <v>233</v>
       </c>
       <c r="G113" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4671,13 +4671,13 @@
         <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F114" t="s">
         <v>233</v>
       </c>
       <c r="G114" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4694,13 +4694,13 @@
         <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="F115" t="s">
         <v>233</v>
       </c>
       <c r="G115" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4717,13 +4717,13 @@
         <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="F116" t="s">
         <v>233</v>
       </c>
       <c r="G116" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4740,13 +4740,13 @@
         <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F117" t="s">
         <v>233</v>
       </c>
       <c r="G117" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4763,13 +4763,13 @@
         <v>285</v>
       </c>
       <c r="E118" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F118" t="s">
         <v>233</v>
       </c>
       <c r="G118" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4786,13 +4786,13 @@
         <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F119" t="s">
         <v>233</v>
       </c>
       <c r="G119" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4809,13 +4809,13 @@
         <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F120" t="s">
         <v>233</v>
       </c>
       <c r="G120" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4832,13 +4832,13 @@
         <v>285</v>
       </c>
       <c r="E121" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F121" t="s">
         <v>233</v>
       </c>
       <c r="G121" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4855,13 +4855,13 @@
         <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F122" t="s">
         <v>233</v>
       </c>
       <c r="G122" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4878,13 +4878,13 @@
         <v>285</v>
       </c>
       <c r="E123" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F123" t="s">
         <v>233</v>
       </c>
       <c r="G123" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4901,10 +4901,10 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
+        <v>302</v>
+      </c>
+      <c r="F124" t="s">
         <v>301</v>
-      </c>
-      <c r="F124" t="s">
-        <v>302</v>
       </c>
       <c r="G124" t="s">
         <v>302</v>
@@ -4924,10 +4924,10 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" t="s">
         <v>301</v>
-      </c>
-      <c r="F125" t="s">
-        <v>302</v>
       </c>
       <c r="G125" t="s">
         <v>302</v>
@@ -4947,10 +4947,10 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" t="s">
         <v>301</v>
-      </c>
-      <c r="F126" t="s">
-        <v>302</v>
       </c>
       <c r="G126" t="s">
         <v>302</v>
@@ -4970,10 +4970,10 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
+        <v>302</v>
+      </c>
+      <c r="F127" t="s">
         <v>301</v>
-      </c>
-      <c r="F127" t="s">
-        <v>302</v>
       </c>
       <c r="G127" t="s">
         <v>302</v>
@@ -4993,10 +4993,10 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
+        <v>302</v>
+      </c>
+      <c r="F128" t="s">
         <v>301</v>
-      </c>
-      <c r="F128" t="s">
-        <v>302</v>
       </c>
       <c r="G128" t="s">
         <v>302</v>
@@ -5016,10 +5016,10 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
+        <v>302</v>
+      </c>
+      <c r="F129" t="s">
         <v>301</v>
-      </c>
-      <c r="F129" t="s">
-        <v>302</v>
       </c>
       <c r="G129" t="s">
         <v>302</v>
@@ -5039,10 +5039,10 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
+        <v>316</v>
+      </c>
+      <c r="F130" t="s">
         <v>315</v>
-      </c>
-      <c r="F130" t="s">
-        <v>316</v>
       </c>
       <c r="G130" t="s">
         <v>316</v>
@@ -5062,10 +5062,10 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
+        <v>316</v>
+      </c>
+      <c r="F131" t="s">
         <v>315</v>
-      </c>
-      <c r="F131" t="s">
-        <v>316</v>
       </c>
       <c r="G131" t="s">
         <v>316</v>
@@ -5085,10 +5085,10 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
+        <v>316</v>
+      </c>
+      <c r="F132" t="s">
         <v>315</v>
-      </c>
-      <c r="F132" t="s">
-        <v>316</v>
       </c>
       <c r="G132" t="s">
         <v>316</v>
@@ -5108,10 +5108,10 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" t="s">
         <v>315</v>
-      </c>
-      <c r="F133" t="s">
-        <v>316</v>
       </c>
       <c r="G133" t="s">
         <v>316</v>
@@ -5545,13 +5545,13 @@
         <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F152" t="s">
         <v>327</v>
       </c>
       <c r="G152" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5568,13 +5568,13 @@
         <v>365</v>
       </c>
       <c r="E153" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F153" t="s">
         <v>327</v>
       </c>
       <c r="G153" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5591,13 +5591,13 @@
         <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F154" t="s">
         <v>327</v>
       </c>
       <c r="G154" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5614,13 +5614,13 @@
         <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F155" t="s">
         <v>327</v>
       </c>
       <c r="G155" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5637,13 +5637,13 @@
         <v>365</v>
       </c>
       <c r="E156" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F156" t="s">
         <v>327</v>
       </c>
       <c r="G156" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5660,13 +5660,13 @@
         <v>365</v>
       </c>
       <c r="E157" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F157" t="s">
         <v>327</v>
       </c>
       <c r="G157" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5683,13 +5683,13 @@
         <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F158" t="s">
         <v>327</v>
       </c>
       <c r="G158" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5706,13 +5706,13 @@
         <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F159" t="s">
         <v>327</v>
       </c>
       <c r="G159" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5729,13 +5729,13 @@
         <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F160" t="s">
         <v>327</v>
       </c>
       <c r="G160" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5752,13 +5752,13 @@
         <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F161" t="s">
         <v>327</v>
       </c>
       <c r="G161" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5775,13 +5775,13 @@
         <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F162" t="s">
         <v>327</v>
       </c>
       <c r="G162" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6235,13 +6235,13 @@
         <v>433</v>
       </c>
       <c r="E182" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F182" t="s">
         <v>393</v>
       </c>
       <c r="G182" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6258,13 +6258,13 @@
         <v>433</v>
       </c>
       <c r="E183" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F183" t="s">
         <v>393</v>
       </c>
       <c r="G183" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6281,13 +6281,13 @@
         <v>433</v>
       </c>
       <c r="E184" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F184" t="s">
         <v>393</v>
       </c>
       <c r="G184" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6304,13 +6304,13 @@
         <v>433</v>
       </c>
       <c r="E185" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F185" t="s">
         <v>393</v>
       </c>
       <c r="G185" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6327,13 +6327,13 @@
         <v>433</v>
       </c>
       <c r="E186" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F186" t="s">
         <v>393</v>
       </c>
       <c r="G186" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6350,13 +6350,13 @@
         <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F187" t="s">
         <v>393</v>
       </c>
       <c r="G187" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6373,13 +6373,13 @@
         <v>433</v>
       </c>
       <c r="E188" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F188" t="s">
         <v>393</v>
       </c>
       <c r="G188" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6396,13 +6396,13 @@
         <v>433</v>
       </c>
       <c r="E189" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F189" t="s">
         <v>393</v>
       </c>
       <c r="G189" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6419,13 +6419,13 @@
         <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F190" t="s">
         <v>393</v>
       </c>
       <c r="G190" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6442,13 +6442,13 @@
         <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F191" t="s">
         <v>393</v>
       </c>
       <c r="G191" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6465,13 +6465,13 @@
         <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="F192" t="s">
         <v>393</v>
       </c>
       <c r="G192" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6488,10 +6488,10 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
+        <v>460</v>
+      </c>
+      <c r="F193" t="s">
         <v>459</v>
-      </c>
-      <c r="F193" t="s">
-        <v>460</v>
       </c>
       <c r="G193" t="s">
         <v>460</v>
@@ -6511,10 +6511,10 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
+        <v>460</v>
+      </c>
+      <c r="F194" t="s">
         <v>459</v>
-      </c>
-      <c r="F194" t="s">
-        <v>460</v>
       </c>
       <c r="G194" t="s">
         <v>460</v>
@@ -6534,10 +6534,10 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
+        <v>460</v>
+      </c>
+      <c r="F195" t="s">
         <v>459</v>
-      </c>
-      <c r="F195" t="s">
-        <v>460</v>
       </c>
       <c r="G195" t="s">
         <v>460</v>
@@ -6557,10 +6557,10 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
+        <v>460</v>
+      </c>
+      <c r="F196" t="s">
         <v>459</v>
-      </c>
-      <c r="F196" t="s">
-        <v>460</v>
       </c>
       <c r="G196" t="s">
         <v>460</v>
@@ -6580,10 +6580,10 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
+        <v>460</v>
+      </c>
+      <c r="F197" t="s">
         <v>459</v>
-      </c>
-      <c r="F197" t="s">
-        <v>460</v>
       </c>
       <c r="G197" t="s">
         <v>460</v>
@@ -6603,10 +6603,10 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
+        <v>460</v>
+      </c>
+      <c r="F198" t="s">
         <v>459</v>
-      </c>
-      <c r="F198" t="s">
-        <v>460</v>
       </c>
       <c r="G198" t="s">
         <v>460</v>
@@ -6626,10 +6626,10 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
+        <v>474</v>
+      </c>
+      <c r="F199" t="s">
         <v>473</v>
-      </c>
-      <c r="F199" t="s">
-        <v>474</v>
       </c>
       <c r="G199" t="s">
         <v>474</v>
@@ -6649,10 +6649,10 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
+        <v>478</v>
+      </c>
+      <c r="F200" t="s">
         <v>477</v>
-      </c>
-      <c r="F200" t="s">
-        <v>478</v>
       </c>
       <c r="G200" t="s">
         <v>478</v>
@@ -6672,10 +6672,10 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
+        <v>478</v>
+      </c>
+      <c r="F201" t="s">
         <v>477</v>
-      </c>
-      <c r="F201" t="s">
-        <v>478</v>
       </c>
       <c r="G201" t="s">
         <v>478</v>
@@ -6695,10 +6695,10 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
+        <v>478</v>
+      </c>
+      <c r="F202" t="s">
         <v>477</v>
-      </c>
-      <c r="F202" t="s">
-        <v>478</v>
       </c>
       <c r="G202" t="s">
         <v>478</v>
@@ -6718,10 +6718,10 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
+        <v>478</v>
+      </c>
+      <c r="F203" t="s">
         <v>477</v>
-      </c>
-      <c r="F203" t="s">
-        <v>478</v>
       </c>
       <c r="G203" t="s">
         <v>478</v>
@@ -6741,10 +6741,10 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
+        <v>478</v>
+      </c>
+      <c r="F204" t="s">
         <v>477</v>
-      </c>
-      <c r="F204" t="s">
-        <v>478</v>
       </c>
       <c r="G204" t="s">
         <v>478</v>
@@ -6764,10 +6764,10 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
+        <v>478</v>
+      </c>
+      <c r="F205" t="s">
         <v>477</v>
-      </c>
-      <c r="F205" t="s">
-        <v>478</v>
       </c>
       <c r="G205" t="s">
         <v>478</v>
@@ -6787,10 +6787,10 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
+        <v>492</v>
+      </c>
+      <c r="F206" t="s">
         <v>491</v>
-      </c>
-      <c r="F206" t="s">
-        <v>492</v>
       </c>
       <c r="G206" t="s">
         <v>492</v>
@@ -6810,10 +6810,10 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
+        <v>492</v>
+      </c>
+      <c r="F207" t="s">
         <v>491</v>
-      </c>
-      <c r="F207" t="s">
-        <v>492</v>
       </c>
       <c r="G207" t="s">
         <v>492</v>
@@ -6833,10 +6833,10 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
+        <v>492</v>
+      </c>
+      <c r="F208" t="s">
         <v>491</v>
-      </c>
-      <c r="F208" t="s">
-        <v>492</v>
       </c>
       <c r="G208" t="s">
         <v>492</v>
@@ -6856,10 +6856,10 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
+        <v>492</v>
+      </c>
+      <c r="F209" t="s">
         <v>491</v>
-      </c>
-      <c r="F209" t="s">
-        <v>492</v>
       </c>
       <c r="G209" t="s">
         <v>492</v>
@@ -6879,10 +6879,10 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
+        <v>492</v>
+      </c>
+      <c r="F210" t="s">
         <v>491</v>
-      </c>
-      <c r="F210" t="s">
-        <v>492</v>
       </c>
       <c r="G210" t="s">
         <v>492</v>
@@ -6902,10 +6902,10 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
+        <v>492</v>
+      </c>
+      <c r="F211" t="s">
         <v>491</v>
-      </c>
-      <c r="F211" t="s">
-        <v>492</v>
       </c>
       <c r="G211" t="s">
         <v>492</v>
@@ -6925,10 +6925,10 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
+        <v>492</v>
+      </c>
+      <c r="F212" t="s">
         <v>491</v>
-      </c>
-      <c r="F212" t="s">
-        <v>492</v>
       </c>
       <c r="G212" t="s">
         <v>492</v>
@@ -6948,10 +6948,10 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
+        <v>492</v>
+      </c>
+      <c r="F213" t="s">
         <v>491</v>
-      </c>
-      <c r="F213" t="s">
-        <v>492</v>
       </c>
       <c r="G213" t="s">
         <v>492</v>
@@ -6971,10 +6971,10 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
+        <v>492</v>
+      </c>
+      <c r="F214" t="s">
         <v>491</v>
-      </c>
-      <c r="F214" t="s">
-        <v>492</v>
       </c>
       <c r="G214" t="s">
         <v>492</v>
@@ -6994,10 +6994,10 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
+        <v>492</v>
+      </c>
+      <c r="F215" t="s">
         <v>491</v>
-      </c>
-      <c r="F215" t="s">
-        <v>492</v>
       </c>
       <c r="G215" t="s">
         <v>492</v>
@@ -7017,10 +7017,10 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
+        <v>514</v>
+      </c>
+      <c r="F216" t="s">
         <v>513</v>
-      </c>
-      <c r="F216" t="s">
-        <v>514</v>
       </c>
       <c r="G216" t="s">
         <v>514</v>
@@ -7040,10 +7040,10 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
+        <v>518</v>
+      </c>
+      <c r="F217" t="s">
         <v>517</v>
-      </c>
-      <c r="F217" t="s">
-        <v>518</v>
       </c>
       <c r="G217" t="s">
         <v>518</v>
@@ -7063,10 +7063,10 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
+        <v>522</v>
+      </c>
+      <c r="F218" t="s">
         <v>521</v>
-      </c>
-      <c r="F218" t="s">
-        <v>522</v>
       </c>
       <c r="G218" t="s">
         <v>522</v>
@@ -7086,10 +7086,10 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
+        <v>522</v>
+      </c>
+      <c r="F219" t="s">
         <v>521</v>
-      </c>
-      <c r="F219" t="s">
-        <v>522</v>
       </c>
       <c r="G219" t="s">
         <v>522</v>
@@ -7109,10 +7109,10 @@
         <v>527</v>
       </c>
       <c r="E220" t="s">
+        <v>526</v>
+      </c>
+      <c r="F220" t="s">
         <v>527</v>
-      </c>
-      <c r="F220" t="s">
-        <v>526</v>
       </c>
       <c r="G220" t="s">
         <v>526</v>
@@ -7132,10 +7132,10 @@
         <v>527</v>
       </c>
       <c r="E221" t="s">
+        <v>526</v>
+      </c>
+      <c r="F221" t="s">
         <v>527</v>
-      </c>
-      <c r="F221" t="s">
-        <v>526</v>
       </c>
       <c r="G221" t="s">
         <v>526</v>
@@ -7155,10 +7155,10 @@
         <v>527</v>
       </c>
       <c r="E222" t="s">
+        <v>526</v>
+      </c>
+      <c r="F222" t="s">
         <v>527</v>
-      </c>
-      <c r="F222" t="s">
-        <v>526</v>
       </c>
       <c r="G222" t="s">
         <v>526</v>
@@ -7178,10 +7178,10 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
+        <v>526</v>
+      </c>
+      <c r="F223" t="s">
         <v>527</v>
-      </c>
-      <c r="F223" t="s">
-        <v>526</v>
       </c>
       <c r="G223" t="s">
         <v>526</v>
@@ -7201,10 +7201,10 @@
         <v>527</v>
       </c>
       <c r="E224" t="s">
+        <v>526</v>
+      </c>
+      <c r="F224" t="s">
         <v>527</v>
-      </c>
-      <c r="F224" t="s">
-        <v>526</v>
       </c>
       <c r="G224" t="s">
         <v>526</v>
@@ -7224,10 +7224,10 @@
         <v>527</v>
       </c>
       <c r="E225" t="s">
+        <v>526</v>
+      </c>
+      <c r="F225" t="s">
         <v>527</v>
-      </c>
-      <c r="F225" t="s">
-        <v>526</v>
       </c>
       <c r="G225" t="s">
         <v>526</v>
@@ -7247,10 +7247,10 @@
         <v>527</v>
       </c>
       <c r="E226" t="s">
+        <v>526</v>
+      </c>
+      <c r="F226" t="s">
         <v>527</v>
-      </c>
-      <c r="F226" t="s">
-        <v>526</v>
       </c>
       <c r="G226" t="s">
         <v>526</v>
@@ -7270,10 +7270,10 @@
         <v>542</v>
       </c>
       <c r="E227" t="s">
+        <v>543</v>
+      </c>
+      <c r="F227" t="s">
         <v>542</v>
-      </c>
-      <c r="F227" t="s">
-        <v>543</v>
       </c>
       <c r="G227" t="s">
         <v>543</v>
@@ -7293,10 +7293,10 @@
         <v>542</v>
       </c>
       <c r="E228" t="s">
+        <v>543</v>
+      </c>
+      <c r="F228" t="s">
         <v>542</v>
-      </c>
-      <c r="F228" t="s">
-        <v>543</v>
       </c>
       <c r="G228" t="s">
         <v>543</v>
@@ -7316,10 +7316,10 @@
         <v>542</v>
       </c>
       <c r="E229" t="s">
+        <v>543</v>
+      </c>
+      <c r="F229" t="s">
         <v>542</v>
-      </c>
-      <c r="F229" t="s">
-        <v>543</v>
       </c>
       <c r="G229" t="s">
         <v>543</v>
@@ -7339,10 +7339,10 @@
         <v>550</v>
       </c>
       <c r="E230" t="s">
+        <v>551</v>
+      </c>
+      <c r="F230" t="s">
         <v>550</v>
-      </c>
-      <c r="F230" t="s">
-        <v>551</v>
       </c>
       <c r="G230" t="s">
         <v>551</v>
@@ -7362,10 +7362,10 @@
         <v>554</v>
       </c>
       <c r="E231" t="s">
+        <v>555</v>
+      </c>
+      <c r="F231" t="s">
         <v>554</v>
-      </c>
-      <c r="F231" t="s">
-        <v>555</v>
       </c>
       <c r="G231" t="s">
         <v>555</v>
@@ -7385,10 +7385,10 @@
         <v>558</v>
       </c>
       <c r="E232" t="s">
+        <v>559</v>
+      </c>
+      <c r="F232" t="s">
         <v>558</v>
-      </c>
-      <c r="F232" t="s">
-        <v>559</v>
       </c>
       <c r="G232" t="s">
         <v>559</v>
@@ -7408,10 +7408,10 @@
         <v>562</v>
       </c>
       <c r="E233" t="s">
+        <v>563</v>
+      </c>
+      <c r="F233" t="s">
         <v>562</v>
-      </c>
-      <c r="F233" t="s">
-        <v>563</v>
       </c>
       <c r="G233" t="s">
         <v>563</v>
@@ -7431,10 +7431,10 @@
         <v>566</v>
       </c>
       <c r="E234" t="s">
+        <v>567</v>
+      </c>
+      <c r="F234" t="s">
         <v>566</v>
-      </c>
-      <c r="F234" t="s">
-        <v>567</v>
       </c>
       <c r="G234" t="s">
         <v>567</v>
@@ -7454,10 +7454,10 @@
         <v>566</v>
       </c>
       <c r="E235" t="s">
+        <v>567</v>
+      </c>
+      <c r="F235" t="s">
         <v>566</v>
-      </c>
-      <c r="F235" t="s">
-        <v>567</v>
       </c>
       <c r="G235" t="s">
         <v>567</v>

--- a/api/clv2/xlsx/pt/SectorGroup.xlsx
+++ b/api/clv2/xlsx/pt/SectorGroup.xlsx
@@ -28,12 +28,12 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
@@ -49,12 +49,12 @@
     <t>111</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Educação, nível não especificado</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>Educação</t>
   </si>
   <si>
@@ -169,12 +169,12 @@
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Saúde, geral</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>Saúde</t>
   </si>
   <si>
@@ -412,12 +412,12 @@
     <t>151</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Governo e sociedade civil, geral</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>Governo e sociedade civil</t>
   </si>
   <si>
@@ -712,12 +712,12 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>Energia</t>
   </si>
   <si>
@@ -994,12 +994,12 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
@@ -1192,10 +1192,10 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Indústria</t>
-  </si>
-  <si>
-    <t>320</t>
   </si>
   <si>
     <t>Indústria, extractivas, construção</t>
@@ -2190,10 +2190,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -2213,10 +2213,10 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2236,10 +2236,10 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -2259,10 +2259,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -2282,10 +2282,10 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -2305,10 +2305,10 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2328,10 +2328,10 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -2351,10 +2351,10 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -2374,10 +2374,10 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -2397,10 +2397,10 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2420,10 +2420,10 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -2535,10 +2535,10 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -2558,10 +2558,10 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
         <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
@@ -2581,10 +2581,10 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>53</v>
@@ -2604,10 +2604,10 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
         <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>53</v>
@@ -2627,10 +2627,10 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>53</v>
@@ -2650,10 +2650,10 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
         <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -2673,10 +2673,10 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
         <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -2693,10 +2693,10 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
         <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -2716,10 +2716,10 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
         <v>63</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="s">
         <v>53</v>
@@ -2739,10 +2739,10 @@
         <v>81</v>
       </c>
       <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
         <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>53</v>
@@ -2762,10 +2762,10 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
         <v>82</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -2785,10 +2785,10 @@
         <v>81</v>
       </c>
       <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
         <v>82</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
@@ -2808,10 +2808,10 @@
         <v>81</v>
       </c>
       <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
         <v>82</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
       </c>
       <c r="G33" t="s">
         <v>53</v>
@@ -2831,10 +2831,10 @@
         <v>81</v>
       </c>
       <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
         <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>53</v>
@@ -2854,10 +2854,10 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
         <v>82</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>53</v>
@@ -2877,10 +2877,10 @@
         <v>95</v>
       </c>
       <c r="E36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
         <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>96</v>
@@ -2900,10 +2900,10 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
         <v>96</v>
-      </c>
-      <c r="F37" t="s">
-        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>96</v>
@@ -2923,10 +2923,10 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" t="s">
         <v>96</v>
-      </c>
-      <c r="F38" t="s">
-        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>96</v>
@@ -2946,10 +2946,10 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
         <v>96</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>96</v>
@@ -2969,10 +2969,10 @@
         <v>95</v>
       </c>
       <c r="E40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" t="s">
         <v>96</v>
-      </c>
-      <c r="F40" t="s">
-        <v>95</v>
       </c>
       <c r="G40" t="s">
         <v>96</v>
@@ -2992,10 +2992,10 @@
         <v>107</v>
       </c>
       <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" t="s">
         <v>108</v>
-      </c>
-      <c r="F41" t="s">
-        <v>107</v>
       </c>
       <c r="G41" t="s">
         <v>108</v>
@@ -3015,10 +3015,10 @@
         <v>107</v>
       </c>
       <c r="E42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" t="s">
         <v>108</v>
-      </c>
-      <c r="F42" t="s">
-        <v>107</v>
       </c>
       <c r="G42" t="s">
         <v>108</v>
@@ -3038,10 +3038,10 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" t="s">
         <v>108</v>
-      </c>
-      <c r="F43" t="s">
-        <v>107</v>
       </c>
       <c r="G43" t="s">
         <v>108</v>
@@ -3061,10 +3061,10 @@
         <v>107</v>
       </c>
       <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
         <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>107</v>
       </c>
       <c r="G44" t="s">
         <v>108</v>
@@ -3084,10 +3084,10 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
         <v>108</v>
-      </c>
-      <c r="F45" t="s">
-        <v>107</v>
       </c>
       <c r="G45" t="s">
         <v>108</v>
@@ -3107,10 +3107,10 @@
         <v>107</v>
       </c>
       <c r="E46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
         <v>108</v>
-      </c>
-      <c r="F46" t="s">
-        <v>107</v>
       </c>
       <c r="G46" t="s">
         <v>108</v>
@@ -3130,10 +3130,10 @@
         <v>107</v>
       </c>
       <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
         <v>108</v>
-      </c>
-      <c r="F47" t="s">
-        <v>107</v>
       </c>
       <c r="G47" t="s">
         <v>108</v>
@@ -3153,10 +3153,10 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
         <v>108</v>
-      </c>
-      <c r="F48" t="s">
-        <v>107</v>
       </c>
       <c r="G48" t="s">
         <v>108</v>
@@ -3176,10 +3176,10 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" t="s">
         <v>108</v>
-      </c>
-      <c r="F49" t="s">
-        <v>107</v>
       </c>
       <c r="G49" t="s">
         <v>108</v>
@@ -3199,10 +3199,10 @@
         <v>107</v>
       </c>
       <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
         <v>108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>107</v>
       </c>
       <c r="G50" t="s">
         <v>108</v>
@@ -3222,10 +3222,10 @@
         <v>107</v>
       </c>
       <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
         <v>108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>107</v>
       </c>
       <c r="G51" t="s">
         <v>108</v>
@@ -3613,10 +3613,10 @@
         <v>167</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>168</v>
-      </c>
-      <c r="F68" t="s">
-        <v>133</v>
       </c>
       <c r="G68" t="s">
         <v>134</v>
@@ -3636,10 +3636,10 @@
         <v>167</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>168</v>
-      </c>
-      <c r="F69" t="s">
-        <v>133</v>
       </c>
       <c r="G69" t="s">
         <v>134</v>
@@ -3659,10 +3659,10 @@
         <v>167</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>168</v>
-      </c>
-      <c r="F70" t="s">
-        <v>133</v>
       </c>
       <c r="G70" t="s">
         <v>134</v>
@@ -3682,10 +3682,10 @@
         <v>167</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>168</v>
-      </c>
-      <c r="F71" t="s">
-        <v>133</v>
       </c>
       <c r="G71" t="s">
         <v>134</v>
@@ -3705,10 +3705,10 @@
         <v>167</v>
       </c>
       <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
         <v>168</v>
-      </c>
-      <c r="F72" t="s">
-        <v>133</v>
       </c>
       <c r="G72" t="s">
         <v>134</v>
@@ -3728,10 +3728,10 @@
         <v>167</v>
       </c>
       <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
         <v>168</v>
-      </c>
-      <c r="F73" t="s">
-        <v>133</v>
       </c>
       <c r="G73" t="s">
         <v>134</v>
@@ -3751,10 +3751,10 @@
         <v>181</v>
       </c>
       <c r="E74" t="s">
+        <v>181</v>
+      </c>
+      <c r="F74" t="s">
         <v>182</v>
-      </c>
-      <c r="F74" t="s">
-        <v>181</v>
       </c>
       <c r="G74" t="s">
         <v>182</v>
@@ -3774,10 +3774,10 @@
         <v>181</v>
       </c>
       <c r="E75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" t="s">
         <v>182</v>
-      </c>
-      <c r="F75" t="s">
-        <v>181</v>
       </c>
       <c r="G75" t="s">
         <v>182</v>
@@ -3797,10 +3797,10 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
+        <v>181</v>
+      </c>
+      <c r="F76" t="s">
         <v>182</v>
-      </c>
-      <c r="F76" t="s">
-        <v>181</v>
       </c>
       <c r="G76" t="s">
         <v>182</v>
@@ -3820,10 +3820,10 @@
         <v>181</v>
       </c>
       <c r="E77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" t="s">
         <v>182</v>
-      </c>
-      <c r="F77" t="s">
-        <v>181</v>
       </c>
       <c r="G77" t="s">
         <v>182</v>
@@ -3843,10 +3843,10 @@
         <v>181</v>
       </c>
       <c r="E78" t="s">
+        <v>181</v>
+      </c>
+      <c r="F78" t="s">
         <v>182</v>
-      </c>
-      <c r="F78" t="s">
-        <v>181</v>
       </c>
       <c r="G78" t="s">
         <v>182</v>
@@ -3866,10 +3866,10 @@
         <v>181</v>
       </c>
       <c r="E79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" t="s">
         <v>182</v>
-      </c>
-      <c r="F79" t="s">
-        <v>181</v>
       </c>
       <c r="G79" t="s">
         <v>182</v>
@@ -3889,10 +3889,10 @@
         <v>181</v>
       </c>
       <c r="E80" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" t="s">
         <v>182</v>
-      </c>
-      <c r="F80" t="s">
-        <v>181</v>
       </c>
       <c r="G80" t="s">
         <v>182</v>
@@ -3912,10 +3912,10 @@
         <v>181</v>
       </c>
       <c r="E81" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" t="s">
         <v>182</v>
-      </c>
-      <c r="F81" t="s">
-        <v>181</v>
       </c>
       <c r="G81" t="s">
         <v>182</v>
@@ -3935,10 +3935,10 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" t="s">
         <v>182</v>
-      </c>
-      <c r="F82" t="s">
-        <v>181</v>
       </c>
       <c r="G82" t="s">
         <v>182</v>
@@ -3958,10 +3958,10 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" t="s">
         <v>182</v>
-      </c>
-      <c r="F83" t="s">
-        <v>181</v>
       </c>
       <c r="G83" t="s">
         <v>182</v>
@@ -3981,10 +3981,10 @@
         <v>181</v>
       </c>
       <c r="E84" t="s">
+        <v>181</v>
+      </c>
+      <c r="F84" t="s">
         <v>182</v>
-      </c>
-      <c r="F84" t="s">
-        <v>181</v>
       </c>
       <c r="G84" t="s">
         <v>182</v>
@@ -4004,10 +4004,10 @@
         <v>205</v>
       </c>
       <c r="E85" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" t="s">
         <v>206</v>
-      </c>
-      <c r="F85" t="s">
-        <v>205</v>
       </c>
       <c r="G85" t="s">
         <v>206</v>
@@ -4027,10 +4027,10 @@
         <v>205</v>
       </c>
       <c r="E86" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" t="s">
         <v>206</v>
-      </c>
-      <c r="F86" t="s">
-        <v>205</v>
       </c>
       <c r="G86" t="s">
         <v>206</v>
@@ -4050,10 +4050,10 @@
         <v>205</v>
       </c>
       <c r="E87" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" t="s">
         <v>206</v>
-      </c>
-      <c r="F87" t="s">
-        <v>205</v>
       </c>
       <c r="G87" t="s">
         <v>206</v>
@@ -4073,10 +4073,10 @@
         <v>205</v>
       </c>
       <c r="E88" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" t="s">
         <v>206</v>
-      </c>
-      <c r="F88" t="s">
-        <v>205</v>
       </c>
       <c r="G88" t="s">
         <v>206</v>
@@ -4096,10 +4096,10 @@
         <v>205</v>
       </c>
       <c r="E89" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" t="s">
         <v>206</v>
-      </c>
-      <c r="F89" t="s">
-        <v>205</v>
       </c>
       <c r="G89" t="s">
         <v>206</v>
@@ -4119,10 +4119,10 @@
         <v>205</v>
       </c>
       <c r="E90" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" t="s">
         <v>206</v>
-      </c>
-      <c r="F90" t="s">
-        <v>205</v>
       </c>
       <c r="G90" t="s">
         <v>206</v>
@@ -4142,10 +4142,10 @@
         <v>205</v>
       </c>
       <c r="E91" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" t="s">
         <v>206</v>
-      </c>
-      <c r="F91" t="s">
-        <v>205</v>
       </c>
       <c r="G91" t="s">
         <v>206</v>
@@ -4165,10 +4165,10 @@
         <v>221</v>
       </c>
       <c r="E92" t="s">
+        <v>221</v>
+      </c>
+      <c r="F92" t="s">
         <v>222</v>
-      </c>
-      <c r="F92" t="s">
-        <v>221</v>
       </c>
       <c r="G92" t="s">
         <v>222</v>
@@ -4188,10 +4188,10 @@
         <v>221</v>
       </c>
       <c r="E93" t="s">
+        <v>221</v>
+      </c>
+      <c r="F93" t="s">
         <v>222</v>
-      </c>
-      <c r="F93" t="s">
-        <v>221</v>
       </c>
       <c r="G93" t="s">
         <v>222</v>
@@ -4211,10 +4211,10 @@
         <v>221</v>
       </c>
       <c r="E94" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94" t="s">
         <v>222</v>
-      </c>
-      <c r="F94" t="s">
-        <v>221</v>
       </c>
       <c r="G94" t="s">
         <v>222</v>
@@ -4234,10 +4234,10 @@
         <v>221</v>
       </c>
       <c r="E95" t="s">
+        <v>221</v>
+      </c>
+      <c r="F95" t="s">
         <v>222</v>
-      </c>
-      <c r="F95" t="s">
-        <v>221</v>
       </c>
       <c r="G95" t="s">
         <v>222</v>
@@ -4349,10 +4349,10 @@
         <v>243</v>
       </c>
       <c r="E100" t="s">
+        <v>232</v>
+      </c>
+      <c r="F100" t="s">
         <v>244</v>
-      </c>
-      <c r="F100" t="s">
-        <v>233</v>
       </c>
       <c r="G100" t="s">
         <v>234</v>
@@ -4372,10 +4372,10 @@
         <v>243</v>
       </c>
       <c r="E101" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" t="s">
         <v>244</v>
-      </c>
-      <c r="F101" t="s">
-        <v>233</v>
       </c>
       <c r="G101" t="s">
         <v>234</v>
@@ -4395,10 +4395,10 @@
         <v>243</v>
       </c>
       <c r="E102" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" t="s">
         <v>244</v>
-      </c>
-      <c r="F102" t="s">
-        <v>233</v>
       </c>
       <c r="G102" t="s">
         <v>234</v>
@@ -4418,10 +4418,10 @@
         <v>243</v>
       </c>
       <c r="E103" t="s">
+        <v>232</v>
+      </c>
+      <c r="F103" t="s">
         <v>244</v>
-      </c>
-      <c r="F103" t="s">
-        <v>233</v>
       </c>
       <c r="G103" t="s">
         <v>234</v>
@@ -4441,10 +4441,10 @@
         <v>243</v>
       </c>
       <c r="E104" t="s">
+        <v>232</v>
+      </c>
+      <c r="F104" t="s">
         <v>244</v>
-      </c>
-      <c r="F104" t="s">
-        <v>233</v>
       </c>
       <c r="G104" t="s">
         <v>234</v>
@@ -4464,10 +4464,10 @@
         <v>243</v>
       </c>
       <c r="E105" t="s">
+        <v>232</v>
+      </c>
+      <c r="F105" t="s">
         <v>244</v>
-      </c>
-      <c r="F105" t="s">
-        <v>233</v>
       </c>
       <c r="G105" t="s">
         <v>234</v>
@@ -4487,10 +4487,10 @@
         <v>243</v>
       </c>
       <c r="E106" t="s">
+        <v>232</v>
+      </c>
+      <c r="F106" t="s">
         <v>244</v>
-      </c>
-      <c r="F106" t="s">
-        <v>233</v>
       </c>
       <c r="G106" t="s">
         <v>234</v>
@@ -4510,10 +4510,10 @@
         <v>243</v>
       </c>
       <c r="E107" t="s">
+        <v>232</v>
+      </c>
+      <c r="F107" t="s">
         <v>244</v>
-      </c>
-      <c r="F107" t="s">
-        <v>233</v>
       </c>
       <c r="G107" t="s">
         <v>234</v>
@@ -4533,10 +4533,10 @@
         <v>243</v>
       </c>
       <c r="E108" t="s">
+        <v>232</v>
+      </c>
+      <c r="F108" t="s">
         <v>244</v>
-      </c>
-      <c r="F108" t="s">
-        <v>233</v>
       </c>
       <c r="G108" t="s">
         <v>234</v>
@@ -4556,10 +4556,10 @@
         <v>263</v>
       </c>
       <c r="E109" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" t="s">
         <v>264</v>
-      </c>
-      <c r="F109" t="s">
-        <v>233</v>
       </c>
       <c r="G109" t="s">
         <v>234</v>
@@ -4579,10 +4579,10 @@
         <v>263</v>
       </c>
       <c r="E110" t="s">
+        <v>232</v>
+      </c>
+      <c r="F110" t="s">
         <v>264</v>
-      </c>
-      <c r="F110" t="s">
-        <v>233</v>
       </c>
       <c r="G110" t="s">
         <v>234</v>
@@ -4602,10 +4602,10 @@
         <v>263</v>
       </c>
       <c r="E111" t="s">
+        <v>232</v>
+      </c>
+      <c r="F111" t="s">
         <v>264</v>
-      </c>
-      <c r="F111" t="s">
-        <v>233</v>
       </c>
       <c r="G111" t="s">
         <v>234</v>
@@ -4625,10 +4625,10 @@
         <v>263</v>
       </c>
       <c r="E112" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" t="s">
         <v>264</v>
-      </c>
-      <c r="F112" t="s">
-        <v>233</v>
       </c>
       <c r="G112" t="s">
         <v>234</v>
@@ -4648,10 +4648,10 @@
         <v>263</v>
       </c>
       <c r="E113" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" t="s">
         <v>264</v>
-      </c>
-      <c r="F113" t="s">
-        <v>233</v>
       </c>
       <c r="G113" t="s">
         <v>234</v>
@@ -4671,10 +4671,10 @@
         <v>263</v>
       </c>
       <c r="E114" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" t="s">
         <v>264</v>
-      </c>
-      <c r="F114" t="s">
-        <v>233</v>
       </c>
       <c r="G114" t="s">
         <v>234</v>
@@ -4694,10 +4694,10 @@
         <v>277</v>
       </c>
       <c r="E115" t="s">
+        <v>232</v>
+      </c>
+      <c r="F115" t="s">
         <v>278</v>
-      </c>
-      <c r="F115" t="s">
-        <v>233</v>
       </c>
       <c r="G115" t="s">
         <v>234</v>
@@ -4717,10 +4717,10 @@
         <v>281</v>
       </c>
       <c r="E116" t="s">
+        <v>232</v>
+      </c>
+      <c r="F116" t="s">
         <v>282</v>
-      </c>
-      <c r="F116" t="s">
-        <v>233</v>
       </c>
       <c r="G116" t="s">
         <v>234</v>
@@ -4740,10 +4740,10 @@
         <v>285</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>286</v>
-      </c>
-      <c r="F117" t="s">
-        <v>233</v>
       </c>
       <c r="G117" t="s">
         <v>234</v>
@@ -4763,10 +4763,10 @@
         <v>285</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>286</v>
-      </c>
-      <c r="F118" t="s">
-        <v>233</v>
       </c>
       <c r="G118" t="s">
         <v>234</v>
@@ -4786,10 +4786,10 @@
         <v>285</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>286</v>
-      </c>
-      <c r="F119" t="s">
-        <v>233</v>
       </c>
       <c r="G119" t="s">
         <v>234</v>
@@ -4809,10 +4809,10 @@
         <v>285</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>286</v>
-      </c>
-      <c r="F120" t="s">
-        <v>233</v>
       </c>
       <c r="G120" t="s">
         <v>234</v>
@@ -4832,10 +4832,10 @@
         <v>285</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>286</v>
-      </c>
-      <c r="F121" t="s">
-        <v>233</v>
       </c>
       <c r="G121" t="s">
         <v>234</v>
@@ -4855,10 +4855,10 @@
         <v>285</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>286</v>
-      </c>
-      <c r="F122" t="s">
-        <v>233</v>
       </c>
       <c r="G122" t="s">
         <v>234</v>
@@ -4878,10 +4878,10 @@
         <v>285</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>286</v>
-      </c>
-      <c r="F123" t="s">
-        <v>233</v>
       </c>
       <c r="G123" t="s">
         <v>234</v>
@@ -4901,10 +4901,10 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
+        <v>301</v>
+      </c>
+      <c r="F124" t="s">
         <v>302</v>
-      </c>
-      <c r="F124" t="s">
-        <v>301</v>
       </c>
       <c r="G124" t="s">
         <v>302</v>
@@ -4924,10 +4924,10 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
+        <v>301</v>
+      </c>
+      <c r="F125" t="s">
         <v>302</v>
-      </c>
-      <c r="F125" t="s">
-        <v>301</v>
       </c>
       <c r="G125" t="s">
         <v>302</v>
@@ -4947,10 +4947,10 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
+        <v>301</v>
+      </c>
+      <c r="F126" t="s">
         <v>302</v>
-      </c>
-      <c r="F126" t="s">
-        <v>301</v>
       </c>
       <c r="G126" t="s">
         <v>302</v>
@@ -4970,10 +4970,10 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
+        <v>301</v>
+      </c>
+      <c r="F127" t="s">
         <v>302</v>
-      </c>
-      <c r="F127" t="s">
-        <v>301</v>
       </c>
       <c r="G127" t="s">
         <v>302</v>
@@ -4993,10 +4993,10 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
+        <v>301</v>
+      </c>
+      <c r="F128" t="s">
         <v>302</v>
-      </c>
-      <c r="F128" t="s">
-        <v>301</v>
       </c>
       <c r="G128" t="s">
         <v>302</v>
@@ -5016,10 +5016,10 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
+        <v>301</v>
+      </c>
+      <c r="F129" t="s">
         <v>302</v>
-      </c>
-      <c r="F129" t="s">
-        <v>301</v>
       </c>
       <c r="G129" t="s">
         <v>302</v>
@@ -5039,10 +5039,10 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" t="s">
         <v>316</v>
-      </c>
-      <c r="F130" t="s">
-        <v>315</v>
       </c>
       <c r="G130" t="s">
         <v>316</v>
@@ -5062,10 +5062,10 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
+        <v>315</v>
+      </c>
+      <c r="F131" t="s">
         <v>316</v>
-      </c>
-      <c r="F131" t="s">
-        <v>315</v>
       </c>
       <c r="G131" t="s">
         <v>316</v>
@@ -5085,10 +5085,10 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" t="s">
         <v>316</v>
-      </c>
-      <c r="F132" t="s">
-        <v>315</v>
       </c>
       <c r="G132" t="s">
         <v>316</v>
@@ -5108,10 +5108,10 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" t="s">
         <v>316</v>
-      </c>
-      <c r="F133" t="s">
-        <v>315</v>
       </c>
       <c r="G133" t="s">
         <v>316</v>
@@ -5545,10 +5545,10 @@
         <v>365</v>
       </c>
       <c r="E152" t="s">
+        <v>326</v>
+      </c>
+      <c r="F152" t="s">
         <v>366</v>
-      </c>
-      <c r="F152" t="s">
-        <v>327</v>
       </c>
       <c r="G152" t="s">
         <v>328</v>
@@ -5568,10 +5568,10 @@
         <v>365</v>
       </c>
       <c r="E153" t="s">
+        <v>326</v>
+      </c>
+      <c r="F153" t="s">
         <v>366</v>
-      </c>
-      <c r="F153" t="s">
-        <v>327</v>
       </c>
       <c r="G153" t="s">
         <v>328</v>
@@ -5591,10 +5591,10 @@
         <v>365</v>
       </c>
       <c r="E154" t="s">
+        <v>326</v>
+      </c>
+      <c r="F154" t="s">
         <v>366</v>
-      </c>
-      <c r="F154" t="s">
-        <v>327</v>
       </c>
       <c r="G154" t="s">
         <v>328</v>
@@ -5614,10 +5614,10 @@
         <v>365</v>
       </c>
       <c r="E155" t="s">
+        <v>326</v>
+      </c>
+      <c r="F155" t="s">
         <v>366</v>
-      </c>
-      <c r="F155" t="s">
-        <v>327</v>
       </c>
       <c r="G155" t="s">
         <v>328</v>
@@ -5637,10 +5637,10 @@
         <v>365</v>
       </c>
       <c r="E156" t="s">
+        <v>326</v>
+      </c>
+      <c r="F156" t="s">
         <v>366</v>
-      </c>
-      <c r="F156" t="s">
-        <v>327</v>
       </c>
       <c r="G156" t="s">
         <v>328</v>
@@ -5660,10 +5660,10 @@
         <v>365</v>
       </c>
       <c r="E157" t="s">
+        <v>326</v>
+      </c>
+      <c r="F157" t="s">
         <v>366</v>
-      </c>
-      <c r="F157" t="s">
-        <v>327</v>
       </c>
       <c r="G157" t="s">
         <v>328</v>
@@ -5683,10 +5683,10 @@
         <v>379</v>
       </c>
       <c r="E158" t="s">
+        <v>326</v>
+      </c>
+      <c r="F158" t="s">
         <v>380</v>
-      </c>
-      <c r="F158" t="s">
-        <v>327</v>
       </c>
       <c r="G158" t="s">
         <v>328</v>
@@ -5706,10 +5706,10 @@
         <v>379</v>
       </c>
       <c r="E159" t="s">
+        <v>326</v>
+      </c>
+      <c r="F159" t="s">
         <v>380</v>
-      </c>
-      <c r="F159" t="s">
-        <v>327</v>
       </c>
       <c r="G159" t="s">
         <v>328</v>
@@ -5729,10 +5729,10 @@
         <v>379</v>
       </c>
       <c r="E160" t="s">
+        <v>326</v>
+      </c>
+      <c r="F160" t="s">
         <v>380</v>
-      </c>
-      <c r="F160" t="s">
-        <v>327</v>
       </c>
       <c r="G160" t="s">
         <v>328</v>
@@ -5752,10 +5752,10 @@
         <v>379</v>
       </c>
       <c r="E161" t="s">
+        <v>326</v>
+      </c>
+      <c r="F161" t="s">
         <v>380</v>
-      </c>
-      <c r="F161" t="s">
-        <v>327</v>
       </c>
       <c r="G161" t="s">
         <v>328</v>
@@ -5775,10 +5775,10 @@
         <v>379</v>
       </c>
       <c r="E162" t="s">
+        <v>326</v>
+      </c>
+      <c r="F162" t="s">
         <v>380</v>
-      </c>
-      <c r="F162" t="s">
-        <v>327</v>
       </c>
       <c r="G162" t="s">
         <v>328</v>
@@ -6235,10 +6235,10 @@
         <v>433</v>
       </c>
       <c r="E182" t="s">
+        <v>392</v>
+      </c>
+      <c r="F182" t="s">
         <v>434</v>
-      </c>
-      <c r="F182" t="s">
-        <v>393</v>
       </c>
       <c r="G182" t="s">
         <v>394</v>
@@ -6258,10 +6258,10 @@
         <v>433</v>
       </c>
       <c r="E183" t="s">
+        <v>392</v>
+      </c>
+      <c r="F183" t="s">
         <v>434</v>
-      </c>
-      <c r="F183" t="s">
-        <v>393</v>
       </c>
       <c r="G183" t="s">
         <v>394</v>
@@ -6281,10 +6281,10 @@
         <v>433</v>
       </c>
       <c r="E184" t="s">
+        <v>392</v>
+      </c>
+      <c r="F184" t="s">
         <v>434</v>
-      </c>
-      <c r="F184" t="s">
-        <v>393</v>
       </c>
       <c r="G184" t="s">
         <v>394</v>
@@ -6304,10 +6304,10 @@
         <v>433</v>
       </c>
       <c r="E185" t="s">
+        <v>392</v>
+      </c>
+      <c r="F185" t="s">
         <v>434</v>
-      </c>
-      <c r="F185" t="s">
-        <v>393</v>
       </c>
       <c r="G185" t="s">
         <v>394</v>
@@ -6327,10 +6327,10 @@
         <v>433</v>
       </c>
       <c r="E186" t="s">
+        <v>392</v>
+      </c>
+      <c r="F186" t="s">
         <v>434</v>
-      </c>
-      <c r="F186" t="s">
-        <v>393</v>
       </c>
       <c r="G186" t="s">
         <v>394</v>
@@ -6350,10 +6350,10 @@
         <v>433</v>
       </c>
       <c r="E187" t="s">
+        <v>392</v>
+      </c>
+      <c r="F187" t="s">
         <v>434</v>
-      </c>
-      <c r="F187" t="s">
-        <v>393</v>
       </c>
       <c r="G187" t="s">
         <v>394</v>
@@ -6373,10 +6373,10 @@
         <v>433</v>
       </c>
       <c r="E188" t="s">
+        <v>392</v>
+      </c>
+      <c r="F188" t="s">
         <v>434</v>
-      </c>
-      <c r="F188" t="s">
-        <v>393</v>
       </c>
       <c r="G188" t="s">
         <v>394</v>
@@ -6396,10 +6396,10 @@
         <v>433</v>
       </c>
       <c r="E189" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" t="s">
         <v>434</v>
-      </c>
-      <c r="F189" t="s">
-        <v>393</v>
       </c>
       <c r="G189" t="s">
         <v>394</v>
@@ -6419,10 +6419,10 @@
         <v>433</v>
       </c>
       <c r="E190" t="s">
+        <v>392</v>
+      </c>
+      <c r="F190" t="s">
         <v>434</v>
-      </c>
-      <c r="F190" t="s">
-        <v>393</v>
       </c>
       <c r="G190" t="s">
         <v>394</v>
@@ -6442,10 +6442,10 @@
         <v>433</v>
       </c>
       <c r="E191" t="s">
+        <v>392</v>
+      </c>
+      <c r="F191" t="s">
         <v>434</v>
-      </c>
-      <c r="F191" t="s">
-        <v>393</v>
       </c>
       <c r="G191" t="s">
         <v>394</v>
@@ -6465,10 +6465,10 @@
         <v>455</v>
       </c>
       <c r="E192" t="s">
+        <v>392</v>
+      </c>
+      <c r="F192" t="s">
         <v>456</v>
-      </c>
-      <c r="F192" t="s">
-        <v>393</v>
       </c>
       <c r="G192" t="s">
         <v>394</v>
@@ -6488,10 +6488,10 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
+        <v>459</v>
+      </c>
+      <c r="F193" t="s">
         <v>460</v>
-      </c>
-      <c r="F193" t="s">
-        <v>459</v>
       </c>
       <c r="G193" t="s">
         <v>460</v>
@@ -6511,10 +6511,10 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
+        <v>459</v>
+      </c>
+      <c r="F194" t="s">
         <v>460</v>
-      </c>
-      <c r="F194" t="s">
-        <v>459</v>
       </c>
       <c r="G194" t="s">
         <v>460</v>
@@ -6534,10 +6534,10 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
+        <v>459</v>
+      </c>
+      <c r="F195" t="s">
         <v>460</v>
-      </c>
-      <c r="F195" t="s">
-        <v>459</v>
       </c>
       <c r="G195" t="s">
         <v>460</v>
@@ -6557,10 +6557,10 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
+        <v>459</v>
+      </c>
+      <c r="F196" t="s">
         <v>460</v>
-      </c>
-      <c r="F196" t="s">
-        <v>459</v>
       </c>
       <c r="G196" t="s">
         <v>460</v>
@@ -6580,10 +6580,10 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
+        <v>459</v>
+      </c>
+      <c r="F197" t="s">
         <v>460</v>
-      </c>
-      <c r="F197" t="s">
-        <v>459</v>
       </c>
       <c r="G197" t="s">
         <v>460</v>
@@ -6603,10 +6603,10 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
+        <v>459</v>
+      </c>
+      <c r="F198" t="s">
         <v>460</v>
-      </c>
-      <c r="F198" t="s">
-        <v>459</v>
       </c>
       <c r="G198" t="s">
         <v>460</v>
@@ -6626,10 +6626,10 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
+        <v>473</v>
+      </c>
+      <c r="F199" t="s">
         <v>474</v>
-      </c>
-      <c r="F199" t="s">
-        <v>473</v>
       </c>
       <c r="G199" t="s">
         <v>474</v>
@@ -6649,10 +6649,10 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
+        <v>477</v>
+      </c>
+      <c r="F200" t="s">
         <v>478</v>
-      </c>
-      <c r="F200" t="s">
-        <v>477</v>
       </c>
       <c r="G200" t="s">
         <v>478</v>
@@ -6672,10 +6672,10 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
+        <v>477</v>
+      </c>
+      <c r="F201" t="s">
         <v>478</v>
-      </c>
-      <c r="F201" t="s">
-        <v>477</v>
       </c>
       <c r="G201" t="s">
         <v>478</v>
@@ -6695,10 +6695,10 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
+        <v>477</v>
+      </c>
+      <c r="F202" t="s">
         <v>478</v>
-      </c>
-      <c r="F202" t="s">
-        <v>477</v>
       </c>
       <c r="G202" t="s">
         <v>478</v>
@@ -6718,10 +6718,10 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
+        <v>477</v>
+      </c>
+      <c r="F203" t="s">
         <v>478</v>
-      </c>
-      <c r="F203" t="s">
-        <v>477</v>
       </c>
       <c r="G203" t="s">
         <v>478</v>
@@ -6741,10 +6741,10 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
+        <v>477</v>
+      </c>
+      <c r="F204" t="s">
         <v>478</v>
-      </c>
-      <c r="F204" t="s">
-        <v>477</v>
       </c>
       <c r="G204" t="s">
         <v>478</v>
@@ -6764,10 +6764,10 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
+        <v>477</v>
+      </c>
+      <c r="F205" t="s">
         <v>478</v>
-      </c>
-      <c r="F205" t="s">
-        <v>477</v>
       </c>
       <c r="G205" t="s">
         <v>478</v>
@@ -6787,10 +6787,10 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
+        <v>491</v>
+      </c>
+      <c r="F206" t="s">
         <v>492</v>
-      </c>
-      <c r="F206" t="s">
-        <v>491</v>
       </c>
       <c r="G206" t="s">
         <v>492</v>
@@ -6810,10 +6810,10 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
+        <v>491</v>
+      </c>
+      <c r="F207" t="s">
         <v>492</v>
-      </c>
-      <c r="F207" t="s">
-        <v>491</v>
       </c>
       <c r="G207" t="s">
         <v>492</v>
@@ -6833,10 +6833,10 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
+        <v>491</v>
+      </c>
+      <c r="F208" t="s">
         <v>492</v>
-      </c>
-      <c r="F208" t="s">
-        <v>491</v>
       </c>
       <c r="G208" t="s">
         <v>492</v>
@@ -6856,10 +6856,10 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
+        <v>491</v>
+      </c>
+      <c r="F209" t="s">
         <v>492</v>
-      </c>
-      <c r="F209" t="s">
-        <v>491</v>
       </c>
       <c r="G209" t="s">
         <v>492</v>
@@ -6879,10 +6879,10 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
+        <v>491</v>
+      </c>
+      <c r="F210" t="s">
         <v>492</v>
-      </c>
-      <c r="F210" t="s">
-        <v>491</v>
       </c>
       <c r="G210" t="s">
         <v>492</v>
@@ -6902,10 +6902,10 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
+        <v>491</v>
+      </c>
+      <c r="F211" t="s">
         <v>492</v>
-      </c>
-      <c r="F211" t="s">
-        <v>491</v>
       </c>
       <c r="G211" t="s">
         <v>492</v>
@@ -6925,10 +6925,10 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
+        <v>491</v>
+      </c>
+      <c r="F212" t="s">
         <v>492</v>
-      </c>
-      <c r="F212" t="s">
-        <v>491</v>
       </c>
       <c r="G212" t="s">
         <v>492</v>
@@ -6948,10 +6948,10 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
+        <v>491</v>
+      </c>
+      <c r="F213" t="s">
         <v>492</v>
-      </c>
-      <c r="F213" t="s">
-        <v>491</v>
       </c>
       <c r="G213" t="s">
         <v>492</v>
@@ -6971,10 +6971,10 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
+        <v>491</v>
+      </c>
+      <c r="F214" t="s">
         <v>492</v>
-      </c>
-      <c r="F214" t="s">
-        <v>491</v>
       </c>
       <c r="G214" t="s">
         <v>492</v>
@@ -6994,10 +6994,10 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
+        <v>491</v>
+      </c>
+      <c r="F215" t="s">
         <v>492</v>
-      </c>
-      <c r="F215" t="s">
-        <v>491</v>
       </c>
       <c r="G215" t="s">
         <v>492</v>
@@ -7017,10 +7017,10 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
+        <v>513</v>
+      </c>
+      <c r="F216" t="s">
         <v>514</v>
-      </c>
-      <c r="F216" t="s">
-        <v>513</v>
       </c>
       <c r="G216" t="s">
         <v>514</v>
@@ -7040,10 +7040,10 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
+        <v>517</v>
+      </c>
+      <c r="F217" t="s">
         <v>518</v>
-      </c>
-      <c r="F217" t="s">
-        <v>517</v>
       </c>
       <c r="G217" t="s">
         <v>518</v>
@@ -7063,10 +7063,10 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
+        <v>521</v>
+      </c>
+      <c r="F218" t="s">
         <v>522</v>
-      </c>
-      <c r="F218" t="s">
-        <v>521</v>
       </c>
       <c r="G218" t="s">
         <v>522</v>
@@ -7086,10 +7086,10 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
+        <v>521</v>
+      </c>
+      <c r="F219" t="s">
         <v>522</v>
-      </c>
-      <c r="F219" t="s">
-        <v>521</v>
       </c>
       <c r="G219" t="s">
         <v>522</v>
@@ -7109,10 +7109,10 @@
         <v>527</v>
       </c>
       <c r="E220" t="s">
+        <v>527</v>
+      </c>
+      <c r="F220" t="s">
         <v>526</v>
-      </c>
-      <c r="F220" t="s">
-        <v>527</v>
       </c>
       <c r="G220" t="s">
         <v>526</v>
@@ -7132,10 +7132,10 @@
         <v>527</v>
       </c>
       <c r="E221" t="s">
+        <v>527</v>
+      </c>
+      <c r="F221" t="s">
         <v>526</v>
-      </c>
-      <c r="F221" t="s">
-        <v>527</v>
       </c>
       <c r="G221" t="s">
         <v>526</v>
@@ -7155,10 +7155,10 @@
         <v>527</v>
       </c>
       <c r="E222" t="s">
+        <v>527</v>
+      </c>
+      <c r="F222" t="s">
         <v>526</v>
-      </c>
-      <c r="F222" t="s">
-        <v>527</v>
       </c>
       <c r="G222" t="s">
         <v>526</v>
@@ -7178,10 +7178,10 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
+        <v>527</v>
+      </c>
+      <c r="F223" t="s">
         <v>526</v>
-      </c>
-      <c r="F223" t="s">
-        <v>527</v>
       </c>
       <c r="G223" t="s">
         <v>526</v>
@@ -7201,10 +7201,10 @@
         <v>527</v>
       </c>
       <c r="E224" t="s">
+        <v>527</v>
+      </c>
+      <c r="F224" t="s">
         <v>526</v>
-      </c>
-      <c r="F224" t="s">
-        <v>527</v>
       </c>
       <c r="G224" t="s">
         <v>526</v>
@@ -7224,10 +7224,10 @@
         <v>527</v>
       </c>
       <c r="E225" t="s">
+        <v>527</v>
+      </c>
+      <c r="F225" t="s">
         <v>526</v>
-      </c>
-      <c r="F225" t="s">
-        <v>527</v>
       </c>
       <c r="G225" t="s">
         <v>526</v>
@@ -7247,10 +7247,10 @@
         <v>527</v>
       </c>
       <c r="E226" t="s">
+        <v>527</v>
+      </c>
+      <c r="F226" t="s">
         <v>526</v>
-      </c>
-      <c r="F226" t="s">
-        <v>527</v>
       </c>
       <c r="G226" t="s">
         <v>526</v>
@@ -7270,10 +7270,10 @@
         <v>542</v>
       </c>
       <c r="E227" t="s">
+        <v>542</v>
+      </c>
+      <c r="F227" t="s">
         <v>543</v>
-      </c>
-      <c r="F227" t="s">
-        <v>542</v>
       </c>
       <c r="G227" t="s">
         <v>543</v>
@@ -7293,10 +7293,10 @@
         <v>542</v>
       </c>
       <c r="E228" t="s">
+        <v>542</v>
+      </c>
+      <c r="F228" t="s">
         <v>543</v>
-      </c>
-      <c r="F228" t="s">
-        <v>542</v>
       </c>
       <c r="G228" t="s">
         <v>543</v>
@@ -7316,10 +7316,10 @@
         <v>542</v>
       </c>
       <c r="E229" t="s">
+        <v>542</v>
+      </c>
+      <c r="F229" t="s">
         <v>543</v>
-      </c>
-      <c r="F229" t="s">
-        <v>542</v>
       </c>
       <c r="G229" t="s">
         <v>543</v>
@@ -7339,10 +7339,10 @@
         <v>550</v>
       </c>
       <c r="E230" t="s">
+        <v>550</v>
+      </c>
+      <c r="F230" t="s">
         <v>551</v>
-      </c>
-      <c r="F230" t="s">
-        <v>550</v>
       </c>
       <c r="G230" t="s">
         <v>551</v>
@@ -7362,10 +7362,10 @@
         <v>554</v>
       </c>
       <c r="E231" t="s">
+        <v>554</v>
+      </c>
+      <c r="F231" t="s">
         <v>555</v>
-      </c>
-      <c r="F231" t="s">
-        <v>554</v>
       </c>
       <c r="G231" t="s">
         <v>555</v>
@@ -7385,10 +7385,10 @@
         <v>558</v>
       </c>
       <c r="E232" t="s">
+        <v>558</v>
+      </c>
+      <c r="F232" t="s">
         <v>559</v>
-      </c>
-      <c r="F232" t="s">
-        <v>558</v>
       </c>
       <c r="G232" t="s">
         <v>559</v>
@@ -7408,10 +7408,10 @@
         <v>562</v>
       </c>
       <c r="E233" t="s">
+        <v>562</v>
+      </c>
+      <c r="F233" t="s">
         <v>563</v>
-      </c>
-      <c r="F233" t="s">
-        <v>562</v>
       </c>
       <c r="G233" t="s">
         <v>563</v>
@@ -7431,10 +7431,10 @@
         <v>566</v>
       </c>
       <c r="E234" t="s">
+        <v>566</v>
+      </c>
+      <c r="F234" t="s">
         <v>567</v>
-      </c>
-      <c r="F234" t="s">
-        <v>566</v>
       </c>
       <c r="G234" t="s">
         <v>567</v>
@@ -7454,10 +7454,10 @@
         <v>566</v>
       </c>
       <c r="E235" t="s">
+        <v>566</v>
+      </c>
+      <c r="F235" t="s">
         <v>567</v>
-      </c>
-      <c r="F235" t="s">
-        <v>566</v>
       </c>
       <c r="G235" t="s">
         <v>567</v>
